--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T08:58:39+00:00</t>
+    <t>2024-02-01T14:02:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T14:02:06+00:00</t>
+    <t>2024-02-03T07:42:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-03T07:42:11+00:00</t>
+    <t>2024-02-03T08:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-03T08:02:03+00:00</t>
+    <t>2024-02-03T10:52:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-03T10:52:31+00:00</t>
+    <t>2024-02-03T12:20:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-03T12:20:16+00:00</t>
+    <t>2024-02-03T13:59:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-03T13:59:18+00:00</t>
+    <t>2024-02-03T20:15:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-03T20:15:25+00:00</t>
+    <t>2024-02-04T08:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-04T08:14:02+00:00</t>
+    <t>2024-02-04T09:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T12:39:32+00:00</t>
+    <t>2024-02-05T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1670,17 +1670,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.18359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.2421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.5" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.12109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1689,26 +1689,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="107.0859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="106.98046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.42578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.515625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2842,7 +2842,7 @@
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T14:53:04+00:00</t>
+    <t>2024-02-06T11:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T11:30:33+00:00</t>
+    <t>2024-02-06T12:19:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T12:19:49+00:00</t>
+    <t>2024-02-06T14:33:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T14:33:31+00:00</t>
+    <t>2024-02-06T16:19:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T16:19:49+00:00</t>
+    <t>2024-02-07T07:23:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1670,17 +1670,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.3046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.18359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.2421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.0234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.12109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.5" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1689,26 +1689,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="106.98046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.42578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="107.0859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2842,7 +2842,7 @@
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T07:23:51+00:00</t>
+    <t>2024-02-07T10:40:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T10:40:08+00:00</t>
+    <t>2024-02-07T12:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T12:16:01+00:00</t>
+    <t>2024-02-07T13:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T13:26:07+00:00</t>
+    <t>2024-02-07T16:05:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-08T11:21:17+00:00</t>
+    <t>2024-02-08T16:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-08T16:46:36+00:00</t>
+    <t>2024-02-09T06:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1670,17 +1670,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.3046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.18359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.2421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.0234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.12109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.5" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1689,26 +1689,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="106.98046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.42578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="107.0859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2842,7 +2842,7 @@
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T06:56:29+00:00</t>
+    <t>2024-02-10T09:00:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-10T09:00:37+00:00</t>
+    <t>2024-02-29T07:38:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T07:38:13+00:00</t>
+    <t>2024-03-05T15:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1670,17 +1670,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.18359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.2421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.5" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.12109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1689,26 +1689,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="107.0859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="106.98046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.42578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.515625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2842,7 +2842,7 @@
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T15:05:36+00:00</t>
+    <t>2024-03-06T11:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T11:41:32+00:00</t>
+    <t>2024-03-06T15:16:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T15:16:08+00:00</t>
+    <t>2024-03-20T08:38:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1670,17 +1670,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.3046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.18359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.2421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.0234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.12109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.5" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1689,26 +1689,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="106.98046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.42578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="107.0859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2842,7 +2842,7 @@
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T08:38:17+00:00</t>
+    <t>2024-03-20T10:33:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1670,17 +1670,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.18359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.2421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.5" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.12109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1689,26 +1689,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="107.0859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="106.98046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.42578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.515625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2842,7 +2842,7 @@
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T10:33:47+00:00</t>
+    <t>2024-03-20T11:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T11:14:51+00:00</t>
+    <t>2024-03-20T16:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T16:58:46+00:00</t>
+    <t>2024-03-21T08:58:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1670,17 +1670,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.3046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.18359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.2421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.0234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.12109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.5" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1689,26 +1689,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="106.98046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.42578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="107.0859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2842,7 +2842,7 @@
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T08:58:26+00:00</t>
+    <t>2024-03-21T14:16:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T11:42:20+00:00</t>
+    <t>2024-03-22T12:58:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1670,17 +1670,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.18359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.2421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.5" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.12109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1689,26 +1689,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="107.0859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="106.98046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.42578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.515625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2842,7 +2842,7 @@
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T12:58:08+00:00</t>
+    <t>2024-03-22T14:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="441">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T14:34:11+00:00</t>
+    <t>2024-03-22T16:20:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -313,10 +313,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Organization.implicitRules</t>
   </si>
   <si>
@@ -336,6 +343,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Organization.language</t>
   </si>
   <si>
@@ -413,26 +423,33 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Organization.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -459,10 +476,6 @@
     <t>The main location of the organisation.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Organization.extension:organizationPeriod</t>
   </si>
   <si>
@@ -495,16 +508,13 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Organization.extension:organizationPeriod.extension</t>
   </si>
   <si>
     <t>Organization.extension.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -547,10 +557,6 @@
     <t>Organization.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -558,9 +564,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -587,8 +590,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">org-1
-</t>
+    <t>ele-1
+org-1</t>
   </si>
   <si>
     <t>XON.10 / XON.3</t>
@@ -625,12 +628,6 @@
   </si>
   <si>
     <t>Organization.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Organization.identifier:odsOrganisationCode.use</t>
@@ -781,7 +778,15 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>CX.7 + CX.8</t>
@@ -813,6 +818,10 @@
   </si>
   <si>
     <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
@@ -989,12 +998,12 @@
     <t>Human contact for the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">org-3
-</t>
+    <t>ele-1
+org-3</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>ORC-22?</t>
@@ -1025,8 +1034,8 @@
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
   </si>
   <si>
-    <t xml:space="preserve">org-2
-</t>
+    <t>ele-1
+org-2</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1051,6 +1060,9 @@
     <t>The organization of which this organization forms a part.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>Need to be able to track the hierarchy of organizations within an organization.</t>
   </si>
   <si>
@@ -1078,8 +1090,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">ref-1
-</t>
+    <t>ele-1
+ref-1</t>
   </si>
   <si>
     <t>Organization.partOf.type</t>
@@ -1122,7 +1134,13 @@
     <t>Reference.identifier</t>
   </si>
   <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
     <t>.identifier</t>
+  </si>
+  <si>
+    <t>Identifier</t>
   </si>
   <si>
     <t>Organization.partOf.identifier.id</t>
@@ -1218,6 +1236,9 @@
     <t>Indicates a purpose for which the contact can be reached.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>Need to distinguish between multiple contact persons.</t>
   </si>
   <si>
@@ -1225,6 +1246,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>./type</t>
@@ -1243,6 +1267,9 @@
     <t>A name associated with the contact.</t>
   </si>
   <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+  </si>
+  <si>
     <t>Need to be able to track the person by name.</t>
   </si>
   <si>
@@ -1252,6 +1279,9 @@
     <t>./name</t>
   </si>
   <si>
+    <t>ProviderName</t>
+  </si>
+  <si>
     <t>Organization.contact.telecom</t>
   </si>
   <si>
@@ -1264,12 +1294,19 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>PID-13, PID-14</t>
   </si>
   <si>
     <t>./telecom</t>
   </si>
   <si>
+    <t>ContactPoint</t>
+  </si>
+  <si>
     <t>Organization.contact.address</t>
   </si>
   <si>
@@ -1279,6 +1316,9 @@
     <t>Visiting or postal addresses for the contact.</t>
   </si>
   <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
     <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
   </si>
   <si>
@@ -1286,6 +1326,9 @@
   </si>
   <si>
     <t>./addr</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
   <si>
     <t>Organization.endpoint</t>
@@ -1302,6 +1345,9 @@
   </si>
   <si>
     <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+  </si>
+  <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
   <si>
     <t>Organization.endpoint.id</t>
@@ -1705,7 +1751,7 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.515625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="60.5" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
@@ -2153,16 +2199,16 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>75</v>
@@ -2173,10 +2219,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2199,16 +2245,16 @@
         <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2258,7 +2304,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -2267,16 +2313,16 @@
         <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>75</v>
@@ -2287,10 +2333,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2313,16 +2359,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2348,13 +2394,13 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>75</v>
@@ -2372,7 +2418,7 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -2381,16 +2427,16 @@
         <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>75</v>
@@ -2401,14 +2447,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2427,16 +2473,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2486,7 +2532,7 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -2495,16 +2541,16 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>75</v>
@@ -2515,14 +2561,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2541,16 +2587,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2600,7 +2646,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2618,7 +2664,7 @@
         <v>75</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>75</v>
@@ -2629,14 +2675,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2655,15 +2701,17 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2700,17 +2748,19 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2719,16 +2769,16 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>75</v>
@@ -2739,16 +2789,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2767,15 +2817,17 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
@@ -2824,7 +2876,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2833,16 +2885,16 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>
@@ -2853,16 +2905,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2881,15 +2933,17 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2938,7 +2992,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2947,16 +3001,16 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>75</v>
@@ -2967,10 +3021,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2993,13 +3047,13 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3050,7 +3104,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3068,7 +3122,7 @@
         <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
@@ -3079,14 +3133,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3105,15 +3159,17 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
@@ -3150,19 +3206,19 @@
         <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3171,16 +3227,16 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>75</v>
@@ -3191,10 +3247,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3217,16 +3273,16 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3234,7 +3290,7 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>75</v>
@@ -3276,7 +3332,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>85</v>
@@ -3294,7 +3350,7 @@
         <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>75</v>
@@ -3305,10 +3361,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3331,13 +3387,13 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3388,7 +3444,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3397,16 +3453,16 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>75</v>
@@ -3417,14 +3473,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3443,19 +3499,19 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3492,19 +3548,19 @@
         <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3513,16 +3569,16 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>75</v>
@@ -3533,10 +3589,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3559,17 +3615,17 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3606,17 +3662,17 @@
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3625,33 +3681,33 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>75</v>
@@ -3673,17 +3729,17 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3732,7 +3788,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3741,30 +3797,30 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3787,13 +3843,13 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3844,7 +3900,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3862,7 +3918,7 @@
         <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>75</v>
@@ -3873,14 +3929,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3899,16 +3955,16 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3946,19 +4002,19 @@
         <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3967,16 +4023,16 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>75</v>
@@ -3987,10 +4043,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4013,19 +4069,19 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -4050,49 +4106,49 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z21" t="s" s="2">
+      <c r="AA21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AA21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF21" t="s" s="2">
+      <c r="AG21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>75</v>
@@ -4103,10 +4159,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4129,19 +4185,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -4166,49 +4222,49 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z22" t="s" s="2">
+      <c r="AA22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AA22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF22" t="s" s="2">
+      <c r="AG22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AL22" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>75</v>
@@ -4219,10 +4275,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4245,89 +4301,89 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="S23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T23" t="s" s="2">
+      <c r="U23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="U23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF23" t="s" s="2">
+      <c r="AG23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>75</v>
@@ -4335,10 +4391,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4361,16 +4417,16 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4384,64 +4440,64 @@
         <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="U24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF24" t="s" s="2">
+      <c r="AG24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -4449,10 +4505,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4475,15 +4531,17 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4541,19 +4599,19 @@
         <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>75</v>
@@ -4561,10 +4619,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4587,16 +4645,16 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4646,7 +4704,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4655,19 +4713,19 @@
         <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>75</v>
@@ -4675,13 +4733,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>75</v>
@@ -4703,17 +4761,17 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4762,7 +4820,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4771,30 +4829,30 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4817,13 +4875,13 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4874,7 +4932,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4892,7 +4950,7 @@
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -4903,14 +4961,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4929,16 +4987,16 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4976,19 +5034,19 @@
         <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4997,16 +5055,16 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>75</v>
@@ -5017,10 +5075,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5043,19 +5101,19 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -5080,49 +5138,49 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z30" t="s" s="2">
+      <c r="AA30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AA30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF30" t="s" s="2">
+      <c r="AG30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>75</v>
@@ -5133,10 +5191,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5159,19 +5217,19 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -5196,49 +5254,49 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z31" t="s" s="2">
+      <c r="AA31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF31" t="s" s="2">
+      <c r="AG31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AL31" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>75</v>
@@ -5249,10 +5307,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5275,89 +5333,89 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="T32" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="U32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF32" t="s" s="2">
+      <c r="AG32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>75</v>
@@ -5365,10 +5423,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5391,16 +5449,16 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5414,64 +5472,64 @@
         <v>75</v>
       </c>
       <c r="T33" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="U33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF33" t="s" s="2">
+      <c r="AG33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>75</v>
@@ -5479,10 +5537,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5505,15 +5563,17 @@
         <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5571,19 +5631,19 @@
         <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>75</v>
@@ -5591,10 +5651,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5617,16 +5677,16 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5676,7 +5736,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5685,19 +5745,19 @@
         <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>75</v>
@@ -5705,10 +5765,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5731,71 +5791,71 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q36" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="P36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q36" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5803,30 +5863,30 @@
         <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5849,19 +5909,19 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -5886,13 +5946,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5910,7 +5970,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5919,30 +5979,30 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5965,19 +6025,19 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -6026,7 +6086,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6035,19 +6095,19 @@
         <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>75</v>
@@ -6055,10 +6115,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6081,19 +6141,19 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -6142,7 +6202,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6151,16 +6211,16 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
@@ -6171,10 +6231,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6197,19 +6257,19 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -6258,7 +6318,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6267,19 +6327,19 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>75</v>
@@ -6287,10 +6347,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6313,19 +6373,19 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -6374,7 +6434,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6383,19 +6443,19 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>75</v>
@@ -6403,10 +6463,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6429,17 +6489,19 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6488,7 +6550,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6497,19 +6559,19 @@
         <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>75</v>
@@ -6517,10 +6579,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6543,13 +6605,13 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6600,7 +6662,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6618,7 +6680,7 @@
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>75</v>
@@ -6629,14 +6691,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6655,16 +6717,16 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6702,19 +6764,19 @@
         <v>75</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6723,16 +6785,16 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>75</v>
@@ -6743,10 +6805,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6769,16 +6831,16 @@
         <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6828,7 +6890,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6837,16 +6899,16 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -6857,10 +6919,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6883,16 +6945,16 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6918,13 +6980,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -6942,7 +7004,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6951,16 +7013,16 @@
         <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>75</v>
@@ -6971,10 +7033,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6997,16 +7059,16 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7056,7 +7118,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7065,19 +7127,19 @@
         <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>75</v>
+        <v>359</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>75</v>
@@ -7085,10 +7147,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7111,13 +7173,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7168,7 +7230,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7186,7 +7248,7 @@
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
@@ -7197,14 +7259,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7223,16 +7285,16 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7270,19 +7332,19 @@
         <v>75</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7291,16 +7353,16 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -7311,10 +7373,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7337,19 +7399,19 @@
         <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>75</v>
@@ -7374,49 +7436,49 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y50" t="s" s="2">
+      <c r="Z50" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z50" t="s" s="2">
+      <c r="AA50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AA50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF50" t="s" s="2">
+      <c r="AG50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -7427,10 +7489,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7453,19 +7515,19 @@
         <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>75</v>
@@ -7490,49 +7552,49 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z51" t="s" s="2">
+      <c r="AA51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AA51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF51" t="s" s="2">
+      <c r="AG51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AL51" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>75</v>
@@ -7543,10 +7605,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7569,19 +7631,19 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7594,64 +7656,64 @@
         <v>75</v>
       </c>
       <c r="T52" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="U52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF52" t="s" s="2">
+      <c r="AG52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>75</v>
@@ -7659,10 +7721,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7685,16 +7747,16 @@
         <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7708,64 +7770,64 @@
         <v>75</v>
       </c>
       <c r="T53" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="U53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF53" t="s" s="2">
+      <c r="AG53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>75</v>
@@ -7773,10 +7835,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7799,15 +7861,17 @@
         <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
@@ -7865,19 +7929,19 @@
         <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>75</v>
@@ -7885,10 +7949,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7911,16 +7975,16 @@
         <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7970,7 +8034,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7979,19 +8043,19 @@
         <v>85</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>75</v>
@@ -7999,10 +8063,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8025,16 +8089,16 @@
         <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8084,7 +8148,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8093,16 +8157,16 @@
         <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>75</v>
@@ -8113,10 +8177,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8139,19 +8203,19 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>75</v>
@@ -8200,7 +8264,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8209,16 +8273,16 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>75</v>
@@ -8229,10 +8293,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8255,13 +8319,13 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8312,7 +8376,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8330,7 +8394,7 @@
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>75</v>
@@ -8341,14 +8405,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8367,16 +8431,16 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8414,19 +8478,19 @@
         <v>75</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8435,16 +8499,16 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>75</v>
@@ -8455,14 +8519,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8481,19 +8545,19 @@
         <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -8542,7 +8606,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8551,16 +8615,16 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>75</v>
@@ -8571,10 +8635,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8597,17 +8661,19 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O61" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>75</v>
@@ -8632,32 +8698,32 @@
         <v>75</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Z61" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF61" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AA61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8665,16 +8731,16 @@
         <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>75</v>
+        <v>394</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>75</v>
@@ -8685,10 +8751,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8711,17 +8777,19 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O62" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>75</v>
@@ -8770,7 +8838,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8779,19 +8847,19 @@
         <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>75</v>
+        <v>404</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>75</v>
@@ -8799,10 +8867,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8825,17 +8893,17 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>75</v>
@@ -8884,7 +8952,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8893,19 +8961,19 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>97</v>
+        <v>409</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>75</v>
+        <v>412</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>75</v>
@@ -8913,10 +8981,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8939,17 +9007,19 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O64" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>75</v>
@@ -8998,7 +9068,7 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9007,19 +9077,19 @@
         <v>85</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>75</v>
+        <v>420</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>75</v>
@@ -9027,10 +9097,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9053,17 +9123,19 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O65" t="s" s="2">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>75</v>
@@ -9112,7 +9184,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9121,16 +9193,16 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>153</v>
+        <v>426</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>75</v>
@@ -9141,10 +9213,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9167,13 +9239,13 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9224,7 +9296,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9242,7 +9314,7 @@
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>75</v>
@@ -9253,14 +9325,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9279,16 +9351,16 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9326,19 +9398,19 @@
         <v>75</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9347,16 +9419,16 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>75</v>
@@ -9367,10 +9439,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9393,16 +9465,16 @@
         <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9452,7 +9524,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9461,16 +9533,16 @@
         <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>75</v>
@@ -9481,10 +9553,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9507,16 +9579,16 @@
         <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9542,13 +9614,13 @@
         <v>75</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>75</v>
@@ -9566,7 +9638,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9575,16 +9647,16 @@
         <v>85</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>75</v>
@@ -9595,10 +9667,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9621,16 +9693,16 @@
         <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9680,7 +9752,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9689,19 +9761,19 @@
         <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>75</v>
+        <v>359</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>75</v>
@@ -9709,10 +9781,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9735,13 +9807,13 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9792,7 +9864,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9810,7 +9882,7 @@
         <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>75</v>
@@ -9821,14 +9893,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9847,16 +9919,16 @@
         <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9894,19 +9966,19 @@
         <v>75</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -9915,16 +9987,16 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>75</v>
@@ -9935,10 +10007,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9961,19 +10033,19 @@
         <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>75</v>
@@ -9998,49 +10070,49 @@
         <v>75</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y73" t="s" s="2">
+      <c r="Z73" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z73" t="s" s="2">
+      <c r="AA73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF73" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AA73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF73" t="s" s="2">
+      <c r="AG73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>75</v>
@@ -10051,10 +10123,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10077,19 +10149,19 @@
         <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>75</v>
@@ -10114,49 +10186,49 @@
         <v>75</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y74" t="s" s="2">
+      <c r="Z74" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z74" t="s" s="2">
+      <c r="AA74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF74" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AA74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF74" t="s" s="2">
+      <c r="AG74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AG74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AL74" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>75</v>
@@ -10167,10 +10239,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10193,19 +10265,19 @@
         <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>75</v>
@@ -10218,64 +10290,64 @@
         <v>75</v>
       </c>
       <c r="T75" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF75" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="U75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF75" t="s" s="2">
+      <c r="AG75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK75" t="s" s="2">
+      <c r="AL75" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>75</v>
@@ -10283,10 +10355,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10309,16 +10381,16 @@
         <v>86</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10332,64 +10404,64 @@
         <v>75</v>
       </c>
       <c r="T76" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF76" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="U76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF76" t="s" s="2">
+      <c r="AG76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AG76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK76" t="s" s="2">
+      <c r="AL76" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>75</v>
@@ -10397,10 +10469,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10423,15 +10495,17 @@
         <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>75</v>
@@ -10489,19 +10563,19 @@
         <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>75</v>
@@ -10509,10 +10583,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10535,16 +10609,16 @@
         <v>86</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10594,7 +10668,7 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -10603,19 +10677,19 @@
         <v>85</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>75</v>
@@ -10623,10 +10697,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10649,16 +10723,16 @@
         <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10708,7 +10782,7 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -10717,16 +10791,16 @@
         <v>85</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T16:20:37+00:00</t>
+    <t>2024-03-25T12:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T12:19:57+00:00</t>
+    <t>2024-03-25T15:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T15:09:50+00:00</t>
+    <t>2024-03-25T16:04:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="427">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T16:04:49+00:00</t>
+    <t>2024-03-26T07:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -313,250 +313,244 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Organization.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Organization.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Organization.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Organization.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Organization.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Organization.extension:mainLocation</t>
+  </si>
+  <si>
+    <t>mainLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-MainLocation}
+</t>
+  </si>
+  <si>
+    <t>Main location</t>
+  </si>
+  <si>
+    <t>The main location of the organisation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>Organization.extension:organizationPeriod</t>
+  </si>
+  <si>
+    <t>organizationPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {organization-period}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Organization.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
+    <t>The date range that this organization SHOULD be considered available.</t>
+  </si>
+  <si>
+    <t>Organization.extension:organizationPeriod.id</t>
+  </si>
+  <si>
+    <t>Organization.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>Organization.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
+    <t>Organization.extension:organizationPeriod.extension</t>
+  </si>
+  <si>
+    <t>Organization.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Organization.extension:organizationPeriod.url</t>
+  </si>
+  <si>
+    <t>Organization.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/organization-period</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Organization.extension:organizationPeriod.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Organization.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Organization.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Organization.extension</t>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Organization.extension:mainLocation</t>
-  </si>
-  <si>
-    <t>mainLocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-MainLocation}
-</t>
-  </si>
-  <si>
-    <t>Main location</t>
-  </si>
-  <si>
-    <t>The main location of the organisation.</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationPeriod</t>
-  </si>
-  <si>
-    <t>organizationPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {organization-period}
-</t>
-  </si>
-  <si>
-    <t>The date range that this organization SHOULD be considered available.</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationPeriod.id</t>
-  </si>
-  <si>
-    <t>Organization.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationPeriod.extension</t>
-  </si>
-  <si>
-    <t>Organization.extension.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationPeriod.url</t>
-  </si>
-  <si>
-    <t>Organization.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/organization-period</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationPeriod.value[x]</t>
-  </si>
-  <si>
-    <t>Organization.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Organization.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -564,6 +558,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -590,8 +587,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1
-org-1</t>
+    <t xml:space="preserve">org-1
+</t>
   </si>
   <si>
     <t>XON.10 / XON.3</t>
@@ -628,6 +625,12 @@
   </si>
   <si>
     <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Organization.identifier:odsOrganisationCode.use</t>
@@ -778,15 +781,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>CX.7 + CX.8</t>
@@ -818,10 +813,6 @@
   </si>
   <si>
     <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
@@ -998,12 +989,12 @@
     <t>Human contact for the organization.</t>
   </si>
   <si>
-    <t>ele-1
-org-3</t>
+    <t xml:space="preserve">org-3
+</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>ORC-22?</t>
@@ -1034,8 +1025,8 @@
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
   </si>
   <si>
-    <t>ele-1
-org-2</t>
+    <t xml:space="preserve">org-2
+</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1060,9 +1051,6 @@
     <t>The organization of which this organization forms a part.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Need to be able to track the hierarchy of organizations within an organization.</t>
   </si>
   <si>
@@ -1090,8 +1078,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t>ele-1
-ref-1</t>
+    <t xml:space="preserve">ref-1
+</t>
   </si>
   <si>
     <t>Organization.partOf.type</t>
@@ -1134,13 +1122,7 @@
     <t>Reference.identifier</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
     <t>.identifier</t>
-  </si>
-  <si>
-    <t>Identifier</t>
   </si>
   <si>
     <t>Organization.partOf.identifier.id</t>
@@ -1236,9 +1218,6 @@
     <t>Indicates a purpose for which the contact can be reached.</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>Need to distinguish between multiple contact persons.</t>
   </si>
   <si>
@@ -1246,9 +1225,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>./type</t>
@@ -1267,9 +1243,6 @@
     <t>A name associated with the contact.</t>
   </si>
   <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
-  </si>
-  <si>
     <t>Need to be able to track the person by name.</t>
   </si>
   <si>
@@ -1279,9 +1252,6 @@
     <t>./name</t>
   </si>
   <si>
-    <t>ProviderName</t>
-  </si>
-  <si>
     <t>Organization.contact.telecom</t>
   </si>
   <si>
@@ -1294,19 +1264,12 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
     <t>PID-13, PID-14</t>
   </si>
   <si>
     <t>./telecom</t>
   </si>
   <si>
-    <t>ContactPoint</t>
-  </si>
-  <si>
     <t>Organization.contact.address</t>
   </si>
   <si>
@@ -1316,9 +1279,6 @@
     <t>Visiting or postal addresses for the contact.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
     <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
   </si>
   <si>
@@ -1326,9 +1286,6 @@
   </si>
   <si>
     <t>./addr</t>
-  </si>
-  <si>
-    <t>Address</t>
   </si>
   <si>
     <t>Organization.endpoint</t>
@@ -1345,9 +1302,6 @@
   </si>
   <si>
     <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
-  </si>
-  <si>
-    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
   <si>
     <t>Organization.endpoint.id</t>
@@ -1716,17 +1670,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.3046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.18359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.2421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.0234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.12109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.5" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1735,26 +1689,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="106.98046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.42578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="107.0859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="60.5" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2199,16 +2153,16 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>75</v>
@@ -2219,10 +2173,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2245,16 +2199,16 @@
         <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2304,7 +2258,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -2313,16 +2267,16 @@
         <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>75</v>
@@ -2333,10 +2287,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2359,16 +2313,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2394,32 +2348,32 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
@@ -2427,16 +2381,16 @@
         <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>75</v>
@@ -2447,14 +2401,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2473,16 +2427,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2532,7 +2486,7 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -2541,16 +2495,16 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>75</v>
@@ -2561,14 +2515,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2587,16 +2541,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2646,7 +2600,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2664,7 +2618,7 @@
         <v>75</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>75</v>
@@ -2675,14 +2629,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2701,17 +2655,15 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2748,19 +2700,17 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2769,16 +2719,16 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>75</v>
@@ -2789,16 +2739,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2817,17 +2767,15 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
@@ -2876,7 +2824,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2885,16 +2833,16 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>
@@ -2905,16 +2853,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2933,17 +2881,15 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2992,7 +2938,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -3001,16 +2947,16 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>75</v>
@@ -3021,10 +2967,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3047,13 +2993,13 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3104,7 +3050,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3122,7 +3068,7 @@
         <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
@@ -3133,14 +3079,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3159,17 +3105,15 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
@@ -3206,19 +3150,19 @@
         <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3227,16 +3171,16 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>75</v>
@@ -3247,10 +3191,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3273,16 +3217,16 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3290,7 +3234,7 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>75</v>
@@ -3332,7 +3276,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>85</v>
@@ -3350,7 +3294,7 @@
         <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>75</v>
@@ -3361,10 +3305,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3387,13 +3331,13 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3444,7 +3388,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3453,16 +3397,16 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>75</v>
@@ -3473,14 +3417,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3499,19 +3443,19 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3548,19 +3492,19 @@
         <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3569,16 +3513,16 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>75</v>
@@ -3589,10 +3533,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3615,17 +3559,17 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3662,17 +3606,17 @@
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3681,33 +3625,33 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>75</v>
@@ -3729,17 +3673,17 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3788,7 +3732,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3797,30 +3741,30 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AJ18" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3843,13 +3787,13 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3900,7 +3844,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3918,7 +3862,7 @@
         <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>75</v>
@@ -3929,14 +3873,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3955,16 +3899,16 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4002,19 +3946,19 @@
         <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -4023,16 +3967,16 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>75</v>
@@ -4043,10 +3987,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4069,19 +4013,19 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -4106,13 +4050,13 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>75</v>
@@ -4130,7 +4074,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4139,16 +4083,16 @@
         <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK21" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>75</v>
@@ -4159,10 +4103,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4185,19 +4129,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -4222,13 +4166,13 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>75</v>
@@ -4246,7 +4190,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4255,16 +4199,16 @@
         <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>75</v>
@@ -4275,10 +4219,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4301,32 +4245,32 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>75</v>
@@ -4362,7 +4306,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4371,19 +4315,19 @@
         <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>75</v>
@@ -4391,10 +4335,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4417,16 +4361,16 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4440,7 +4384,7 @@
         <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>75</v>
@@ -4476,7 +4420,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4485,19 +4429,19 @@
         <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -4505,10 +4449,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4531,17 +4475,15 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N25" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4599,19 +4541,19 @@
         <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>75</v>
@@ -4619,10 +4561,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4645,16 +4587,16 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4704,28 +4646,28 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>75</v>
@@ -4733,13 +4675,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>75</v>
@@ -4761,17 +4703,17 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4820,7 +4762,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4829,30 +4771,30 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4875,13 +4817,13 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4932,7 +4874,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4950,7 +4892,7 @@
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -4961,14 +4903,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4987,16 +4929,16 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5034,19 +4976,19 @@
         <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5055,16 +4997,16 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>75</v>
@@ -5075,10 +5017,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5101,19 +5043,19 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -5138,13 +5080,13 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>75</v>
@@ -5162,7 +5104,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5171,16 +5113,16 @@
         <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK30" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>75</v>
@@ -5191,10 +5133,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5217,19 +5159,19 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -5254,13 +5196,13 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
@@ -5278,7 +5220,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5287,16 +5229,16 @@
         <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>75</v>
@@ -5307,10 +5249,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5333,32 +5275,32 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>75</v>
@@ -5394,7 +5336,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5403,19 +5345,19 @@
         <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>75</v>
@@ -5423,10 +5365,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5449,16 +5391,16 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5472,7 +5414,7 @@
         <v>75</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>75</v>
@@ -5508,7 +5450,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5517,19 +5459,19 @@
         <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>75</v>
@@ -5537,10 +5479,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5563,17 +5505,15 @@
         <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N34" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5631,19 +5571,19 @@
         <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>75</v>
@@ -5651,10 +5591,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5677,16 +5617,16 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5736,28 +5676,28 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>75</v>
@@ -5765,10 +5705,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5791,102 +5731,102 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="P36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q36" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="O36" t="s" s="2">
+      <c r="R36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="P36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="R36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>285</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5909,19 +5849,19 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -5946,13 +5886,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5970,7 +5910,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5979,30 +5919,30 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK37" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6025,19 +5965,19 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -6086,7 +6026,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6095,19 +6035,19 @@
         <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>75</v>
@@ -6115,10 +6055,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6141,19 +6081,19 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -6202,7 +6142,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6211,16 +6151,16 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
@@ -6231,10 +6171,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6257,19 +6197,19 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -6318,7 +6258,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6327,19 +6267,19 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>75</v>
@@ -6347,10 +6287,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6373,19 +6313,19 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -6434,7 +6374,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6443,19 +6383,19 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AJ41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>75</v>
@@ -6463,10 +6403,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6489,19 +6429,17 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6550,7 +6488,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6559,19 +6497,19 @@
         <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="AK42" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>75</v>
@@ -6579,10 +6517,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6605,13 +6543,13 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6662,7 +6600,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6680,7 +6618,7 @@
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>75</v>
@@ -6691,14 +6629,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6717,16 +6655,16 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6764,19 +6702,19 @@
         <v>75</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6785,16 +6723,16 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>75</v>
@@ -6805,10 +6743,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6831,16 +6769,16 @@
         <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6890,7 +6828,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6899,16 +6837,16 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -6919,10 +6857,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6945,16 +6883,16 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6980,13 +6918,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -7004,7 +6942,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7013,16 +6951,16 @@
         <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>75</v>
@@ -7033,10 +6971,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7059,16 +6997,16 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7118,7 +7056,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7127,19 +7065,19 @@
         <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK47" t="s" s="2">
-        <v>357</v>
+        <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>359</v>
+        <v>75</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>75</v>
@@ -7147,10 +7085,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7173,13 +7111,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7230,7 +7168,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7248,7 +7186,7 @@
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
@@ -7259,14 +7197,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7285,16 +7223,16 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7332,19 +7270,19 @@
         <v>75</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7353,16 +7291,16 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -7373,10 +7311,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7399,19 +7337,19 @@
         <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>75</v>
@@ -7436,13 +7374,13 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>75</v>
@@ -7460,7 +7398,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7469,16 +7407,16 @@
         <v>85</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK50" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -7489,10 +7427,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7515,19 +7453,19 @@
         <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>75</v>
@@ -7552,13 +7490,13 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>75</v>
@@ -7576,7 +7514,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7585,16 +7523,16 @@
         <v>85</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK51" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>75</v>
@@ -7605,10 +7543,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7631,19 +7569,19 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7656,7 +7594,7 @@
         <v>75</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>75</v>
@@ -7692,7 +7630,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7701,19 +7639,19 @@
         <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK52" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>75</v>
@@ -7721,10 +7659,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7747,16 +7685,16 @@
         <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7770,7 +7708,7 @@
         <v>75</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>75</v>
@@ -7806,7 +7744,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7815,19 +7753,19 @@
         <v>85</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK53" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>75</v>
@@ -7835,10 +7773,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7861,17 +7799,15 @@
         <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N54" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
@@ -7929,19 +7865,19 @@
         <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>75</v>
@@ -7949,10 +7885,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7975,16 +7911,16 @@
         <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8034,28 +7970,28 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AG55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>75</v>
@@ -8063,10 +7999,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8089,16 +8025,16 @@
         <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8148,7 +8084,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8157,16 +8093,16 @@
         <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ56" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>75</v>
@@ -8177,10 +8113,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8203,19 +8139,19 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>75</v>
@@ -8264,7 +8200,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8273,16 +8209,16 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>75</v>
@@ -8293,10 +8229,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8319,13 +8255,13 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8376,7 +8312,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8394,7 +8330,7 @@
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>75</v>
@@ -8405,14 +8341,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8431,16 +8367,16 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8478,19 +8414,19 @@
         <v>75</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8499,16 +8435,16 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>75</v>
@@ -8519,14 +8455,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8545,19 +8481,19 @@
         <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -8606,7 +8542,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8615,16 +8551,16 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>75</v>
@@ -8635,10 +8571,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8661,19 +8597,17 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>75</v>
@@ -8698,13 +8632,13 @@
         <v>75</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>75</v>
@@ -8722,7 +8656,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8731,16 +8665,16 @@
         <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK61" t="s" s="2">
-        <v>394</v>
+        <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>75</v>
@@ -8751,10 +8685,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8777,19 +8711,17 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>75</v>
@@ -8838,7 +8770,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8847,19 +8779,19 @@
         <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ62" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK62" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>75</v>
@@ -8867,10 +8799,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8893,17 +8825,17 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>75</v>
@@ -8952,7 +8884,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8961,19 +8893,19 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ63" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="AK63" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>412</v>
+        <v>75</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>75</v>
@@ -8981,10 +8913,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9007,19 +8939,17 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>75</v>
@@ -9068,7 +8998,7 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9077,19 +9007,19 @@
         <v>85</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK64" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>75</v>
@@ -9097,10 +9027,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9123,19 +9053,17 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>75</v>
@@ -9184,7 +9112,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9193,16 +9121,16 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ65" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>426</v>
+        <v>153</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>75</v>
@@ -9213,10 +9141,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9239,13 +9167,13 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9296,7 +9224,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9314,7 +9242,7 @@
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>75</v>
@@ -9325,14 +9253,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9351,16 +9279,16 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9398,19 +9326,19 @@
         <v>75</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9419,16 +9347,16 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>75</v>
@@ -9439,10 +9367,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9465,16 +9393,16 @@
         <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9524,7 +9452,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9533,16 +9461,16 @@
         <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>75</v>
@@ -9553,10 +9481,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9579,16 +9507,16 @@
         <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9614,13 +9542,13 @@
         <v>75</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>75</v>
@@ -9638,7 +9566,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9647,16 +9575,16 @@
         <v>85</v>
       </c>
       <c r="AI69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ69" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>75</v>
@@ -9667,10 +9595,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9693,16 +9621,16 @@
         <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9752,7 +9680,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9761,19 +9689,19 @@
         <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ70" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK70" t="s" s="2">
-        <v>357</v>
+        <v>75</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>359</v>
+        <v>75</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>75</v>
@@ -9781,10 +9709,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9807,13 +9735,13 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9864,7 +9792,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9882,7 +9810,7 @@
         <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>75</v>
@@ -9893,14 +9821,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9919,16 +9847,16 @@
         <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9966,19 +9894,19 @@
         <v>75</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -9987,16 +9915,16 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>75</v>
@@ -10007,10 +9935,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10033,19 +9961,19 @@
         <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>75</v>
@@ -10070,13 +9998,13 @@
         <v>75</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>75</v>
@@ -10094,7 +10022,7 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -10103,16 +10031,16 @@
         <v>85</v>
       </c>
       <c r="AI73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ73" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK73" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>75</v>
@@ -10123,10 +10051,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10149,19 +10077,19 @@
         <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>75</v>
@@ -10186,13 +10114,13 @@
         <v>75</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>75</v>
@@ -10210,7 +10138,7 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -10219,16 +10147,16 @@
         <v>85</v>
       </c>
       <c r="AI74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ74" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK74" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>75</v>
@@ -10239,10 +10167,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10265,19 +10193,19 @@
         <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>75</v>
@@ -10290,7 +10218,7 @@
         <v>75</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>75</v>
@@ -10326,7 +10254,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10335,19 +10263,19 @@
         <v>85</v>
       </c>
       <c r="AI75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ75" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK75" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>75</v>
@@ -10355,10 +10283,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10381,16 +10309,16 @@
         <v>86</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10404,7 +10332,7 @@
         <v>75</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>75</v>
@@ -10440,7 +10368,7 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -10449,19 +10377,19 @@
         <v>85</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ76" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK76" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>75</v>
@@ -10469,10 +10397,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10495,17 +10423,15 @@
         <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N77" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>75</v>
@@ -10563,19 +10489,19 @@
         <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ77" t="s" s="2">
+      <c r="AK77" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK77" t="s" s="2">
+      <c r="AL77" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>75</v>
@@ -10583,10 +10509,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10609,16 +10535,16 @@
         <v>86</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10668,28 +10594,28 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AG78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
+      <c r="AL78" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>75</v>
@@ -10697,10 +10623,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10723,16 +10649,16 @@
         <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10782,7 +10708,7 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -10791,16 +10717,16 @@
         <v>85</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ79" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="441">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T07:33:19+00:00</t>
+    <t>2024-03-26T12:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -313,10 +313,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Organization.implicitRules</t>
   </si>
   <si>
@@ -336,6 +343,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Organization.language</t>
   </si>
   <si>
@@ -413,26 +423,33 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Organization.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -459,10 +476,6 @@
     <t>The main location of the organisation.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Organization.extension:organizationPeriod</t>
   </si>
   <si>
@@ -495,16 +508,13 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Organization.extension:organizationPeriod.extension</t>
   </si>
   <si>
     <t>Organization.extension.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -547,10 +557,6 @@
     <t>Organization.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -558,9 +564,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -587,8 +590,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">org-1
-</t>
+    <t>ele-1
+org-1</t>
   </si>
   <si>
     <t>XON.10 / XON.3</t>
@@ -625,12 +628,6 @@
   </si>
   <si>
     <t>Organization.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Organization.identifier:odsOrganisationCode.use</t>
@@ -781,7 +778,15 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>CX.7 + CX.8</t>
@@ -813,6 +818,10 @@
   </si>
   <si>
     <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
@@ -989,12 +998,12 @@
     <t>Human contact for the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">org-3
-</t>
+    <t>ele-1
+org-3</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>ORC-22?</t>
@@ -1025,8 +1034,8 @@
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
   </si>
   <si>
-    <t xml:space="preserve">org-2
-</t>
+    <t>ele-1
+org-2</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1051,6 +1060,9 @@
     <t>The organization of which this organization forms a part.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>Need to be able to track the hierarchy of organizations within an organization.</t>
   </si>
   <si>
@@ -1078,8 +1090,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">ref-1
-</t>
+    <t>ele-1
+ref-1</t>
   </si>
   <si>
     <t>Organization.partOf.type</t>
@@ -1122,7 +1134,13 @@
     <t>Reference.identifier</t>
   </si>
   <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
     <t>.identifier</t>
+  </si>
+  <si>
+    <t>Identifier</t>
   </si>
   <si>
     <t>Organization.partOf.identifier.id</t>
@@ -1218,6 +1236,9 @@
     <t>Indicates a purpose for which the contact can be reached.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>Need to distinguish between multiple contact persons.</t>
   </si>
   <si>
@@ -1225,6 +1246,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>./type</t>
@@ -1243,6 +1267,9 @@
     <t>A name associated with the contact.</t>
   </si>
   <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+  </si>
+  <si>
     <t>Need to be able to track the person by name.</t>
   </si>
   <si>
@@ -1252,6 +1279,9 @@
     <t>./name</t>
   </si>
   <si>
+    <t>ProviderName</t>
+  </si>
+  <si>
     <t>Organization.contact.telecom</t>
   </si>
   <si>
@@ -1264,12 +1294,19 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>PID-13, PID-14</t>
   </si>
   <si>
     <t>./telecom</t>
   </si>
   <si>
+    <t>ContactPoint</t>
+  </si>
+  <si>
     <t>Organization.contact.address</t>
   </si>
   <si>
@@ -1279,6 +1316,9 @@
     <t>Visiting or postal addresses for the contact.</t>
   </si>
   <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
     <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
   </si>
   <si>
@@ -1286,6 +1326,9 @@
   </si>
   <si>
     <t>./addr</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
   <si>
     <t>Organization.endpoint</t>
@@ -1302,6 +1345,9 @@
   </si>
   <si>
     <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+  </si>
+  <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
   <si>
     <t>Organization.endpoint.id</t>
@@ -1670,17 +1716,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.18359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.2421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.5" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.12109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1689,26 +1735,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="107.0859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="106.98046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.42578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="60.5" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2153,16 +2199,16 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>75</v>
@@ -2173,10 +2219,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2199,16 +2245,16 @@
         <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2258,7 +2304,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -2267,16 +2313,16 @@
         <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>75</v>
@@ -2287,10 +2333,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2313,16 +2359,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2348,13 +2394,13 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>75</v>
@@ -2372,7 +2418,7 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -2381,16 +2427,16 @@
         <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>75</v>
@@ -2401,14 +2447,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2427,16 +2473,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2486,7 +2532,7 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -2495,16 +2541,16 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>75</v>
@@ -2515,14 +2561,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2541,16 +2587,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2600,7 +2646,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2618,7 +2664,7 @@
         <v>75</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>75</v>
@@ -2629,14 +2675,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2655,15 +2701,17 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2700,17 +2748,19 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2719,16 +2769,16 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>75</v>
@@ -2739,16 +2789,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2767,15 +2817,17 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
@@ -2824,7 +2876,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2833,16 +2885,16 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>
@@ -2853,16 +2905,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2881,15 +2933,17 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2938,7 +2992,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2947,16 +3001,16 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>75</v>
@@ -2967,10 +3021,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2993,13 +3047,13 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3050,7 +3104,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3068,7 +3122,7 @@
         <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
@@ -3079,14 +3133,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3105,15 +3159,17 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
@@ -3150,19 +3206,19 @@
         <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3171,16 +3227,16 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>75</v>
@@ -3191,10 +3247,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3217,16 +3273,16 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3234,7 +3290,7 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>75</v>
@@ -3276,7 +3332,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>85</v>
@@ -3294,7 +3350,7 @@
         <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>75</v>
@@ -3305,10 +3361,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3331,13 +3387,13 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3388,7 +3444,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3397,16 +3453,16 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>75</v>
@@ -3417,14 +3473,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3443,19 +3499,19 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3492,19 +3548,19 @@
         <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3513,16 +3569,16 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>75</v>
@@ -3533,10 +3589,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3559,17 +3615,17 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3606,17 +3662,17 @@
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3625,33 +3681,33 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>75</v>
@@ -3673,17 +3729,17 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3732,7 +3788,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3741,30 +3797,30 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3787,13 +3843,13 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3844,7 +3900,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3862,7 +3918,7 @@
         <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>75</v>
@@ -3873,14 +3929,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3899,16 +3955,16 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3946,19 +4002,19 @@
         <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3967,16 +4023,16 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>75</v>
@@ -3987,10 +4043,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4013,19 +4069,19 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -4050,49 +4106,49 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z21" t="s" s="2">
+      <c r="AA21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AA21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF21" t="s" s="2">
+      <c r="AG21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>75</v>
@@ -4103,10 +4159,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4129,19 +4185,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -4166,49 +4222,49 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z22" t="s" s="2">
+      <c r="AA22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AA22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF22" t="s" s="2">
+      <c r="AG22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AL22" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>75</v>
@@ -4219,10 +4275,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4245,89 +4301,89 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="S23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T23" t="s" s="2">
+      <c r="U23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="U23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF23" t="s" s="2">
+      <c r="AG23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>75</v>
@@ -4335,10 +4391,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4361,16 +4417,16 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4384,64 +4440,64 @@
         <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="U24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF24" t="s" s="2">
+      <c r="AG24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -4449,10 +4505,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4475,15 +4531,17 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4541,19 +4599,19 @@
         <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>75</v>
@@ -4561,10 +4619,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4587,16 +4645,16 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4646,7 +4704,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4655,19 +4713,19 @@
         <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>75</v>
@@ -4675,13 +4733,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>75</v>
@@ -4703,17 +4761,17 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4762,7 +4820,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4771,30 +4829,30 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4817,13 +4875,13 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4874,7 +4932,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4892,7 +4950,7 @@
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -4903,14 +4961,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4929,16 +4987,16 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4976,19 +5034,19 @@
         <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4997,16 +5055,16 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>75</v>
@@ -5017,10 +5075,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5043,19 +5101,19 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -5080,49 +5138,49 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z30" t="s" s="2">
+      <c r="AA30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AA30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF30" t="s" s="2">
+      <c r="AG30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>75</v>
@@ -5133,10 +5191,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5159,19 +5217,19 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -5196,49 +5254,49 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z31" t="s" s="2">
+      <c r="AA31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF31" t="s" s="2">
+      <c r="AG31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AL31" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>75</v>
@@ -5249,10 +5307,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5275,89 +5333,89 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="T32" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="U32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF32" t="s" s="2">
+      <c r="AG32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>75</v>
@@ -5365,10 +5423,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5391,16 +5449,16 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5414,64 +5472,64 @@
         <v>75</v>
       </c>
       <c r="T33" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="U33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF33" t="s" s="2">
+      <c r="AG33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>75</v>
@@ -5479,10 +5537,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5505,15 +5563,17 @@
         <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5571,19 +5631,19 @@
         <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>75</v>
@@ -5591,10 +5651,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5617,16 +5677,16 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5676,7 +5736,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5685,19 +5745,19 @@
         <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>75</v>
@@ -5705,10 +5765,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5731,71 +5791,71 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q36" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="P36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q36" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5803,30 +5863,30 @@
         <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5849,19 +5909,19 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -5886,13 +5946,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5910,7 +5970,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5919,30 +5979,30 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5965,19 +6025,19 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -6026,7 +6086,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6035,19 +6095,19 @@
         <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>75</v>
@@ -6055,10 +6115,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6081,19 +6141,19 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -6142,7 +6202,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6151,16 +6211,16 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
@@ -6171,10 +6231,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6197,19 +6257,19 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -6258,7 +6318,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6267,19 +6327,19 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>75</v>
@@ -6287,10 +6347,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6313,19 +6373,19 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -6374,7 +6434,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6383,19 +6443,19 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>75</v>
@@ -6403,10 +6463,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6429,17 +6489,19 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6488,7 +6550,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6497,19 +6559,19 @@
         <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>75</v>
@@ -6517,10 +6579,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6543,13 +6605,13 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6600,7 +6662,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6618,7 +6680,7 @@
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>75</v>
@@ -6629,14 +6691,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6655,16 +6717,16 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6702,19 +6764,19 @@
         <v>75</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6723,16 +6785,16 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>75</v>
@@ -6743,10 +6805,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6769,16 +6831,16 @@
         <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6828,7 +6890,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6837,16 +6899,16 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -6857,10 +6919,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6883,16 +6945,16 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6918,13 +6980,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -6942,7 +7004,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6951,16 +7013,16 @@
         <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>75</v>
@@ -6971,10 +7033,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6997,16 +7059,16 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7056,7 +7118,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7065,19 +7127,19 @@
         <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>75</v>
+        <v>359</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>75</v>
@@ -7085,10 +7147,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7111,13 +7173,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7168,7 +7230,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7186,7 +7248,7 @@
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
@@ -7197,14 +7259,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7223,16 +7285,16 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7270,19 +7332,19 @@
         <v>75</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7291,16 +7353,16 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -7311,10 +7373,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7337,19 +7399,19 @@
         <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>75</v>
@@ -7374,49 +7436,49 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y50" t="s" s="2">
+      <c r="Z50" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z50" t="s" s="2">
+      <c r="AA50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AA50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF50" t="s" s="2">
+      <c r="AG50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -7427,10 +7489,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7453,19 +7515,19 @@
         <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>75</v>
@@ -7490,49 +7552,49 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z51" t="s" s="2">
+      <c r="AA51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AA51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF51" t="s" s="2">
+      <c r="AG51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AL51" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>75</v>
@@ -7543,10 +7605,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7569,19 +7631,19 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7594,64 +7656,64 @@
         <v>75</v>
       </c>
       <c r="T52" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="U52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF52" t="s" s="2">
+      <c r="AG52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>75</v>
@@ -7659,10 +7721,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7685,16 +7747,16 @@
         <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7708,64 +7770,64 @@
         <v>75</v>
       </c>
       <c r="T53" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="U53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF53" t="s" s="2">
+      <c r="AG53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>75</v>
@@ -7773,10 +7835,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7799,15 +7861,17 @@
         <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
@@ -7865,19 +7929,19 @@
         <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>75</v>
@@ -7885,10 +7949,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7911,16 +7975,16 @@
         <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7970,7 +8034,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7979,19 +8043,19 @@
         <v>85</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>75</v>
@@ -7999,10 +8063,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8025,16 +8089,16 @@
         <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8084,7 +8148,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8093,16 +8157,16 @@
         <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>75</v>
@@ -8113,10 +8177,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8139,19 +8203,19 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>75</v>
@@ -8200,7 +8264,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8209,16 +8273,16 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>75</v>
@@ -8229,10 +8293,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8255,13 +8319,13 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8312,7 +8376,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8330,7 +8394,7 @@
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>75</v>
@@ -8341,14 +8405,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8367,16 +8431,16 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8414,19 +8478,19 @@
         <v>75</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8435,16 +8499,16 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>75</v>
@@ -8455,14 +8519,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8481,19 +8545,19 @@
         <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -8542,7 +8606,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8551,16 +8615,16 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>75</v>
@@ -8571,10 +8635,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8597,17 +8661,19 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O61" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>75</v>
@@ -8632,32 +8698,32 @@
         <v>75</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Z61" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF61" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AA61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8665,16 +8731,16 @@
         <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>75</v>
+        <v>394</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>75</v>
@@ -8685,10 +8751,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8711,17 +8777,19 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O62" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>75</v>
@@ -8770,7 +8838,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8779,19 +8847,19 @@
         <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>75</v>
+        <v>404</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>75</v>
@@ -8799,10 +8867,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8825,17 +8893,17 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>75</v>
@@ -8884,7 +8952,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8893,19 +8961,19 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>97</v>
+        <v>409</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>75</v>
+        <v>412</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>75</v>
@@ -8913,10 +8981,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8939,17 +9007,19 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O64" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>75</v>
@@ -8998,7 +9068,7 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9007,19 +9077,19 @@
         <v>85</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>75</v>
+        <v>420</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>75</v>
@@ -9027,10 +9097,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9053,17 +9123,19 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O65" t="s" s="2">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>75</v>
@@ -9112,7 +9184,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9121,16 +9193,16 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>153</v>
+        <v>426</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>75</v>
@@ -9141,10 +9213,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9167,13 +9239,13 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9224,7 +9296,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9242,7 +9314,7 @@
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>75</v>
@@ -9253,14 +9325,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9279,16 +9351,16 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9326,19 +9398,19 @@
         <v>75</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9347,16 +9419,16 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>75</v>
@@ -9367,10 +9439,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9393,16 +9465,16 @@
         <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9452,7 +9524,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9461,16 +9533,16 @@
         <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>75</v>
@@ -9481,10 +9553,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9507,16 +9579,16 @@
         <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9542,13 +9614,13 @@
         <v>75</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>75</v>
@@ -9566,7 +9638,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9575,16 +9647,16 @@
         <v>85</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>75</v>
@@ -9595,10 +9667,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9621,16 +9693,16 @@
         <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9680,7 +9752,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9689,19 +9761,19 @@
         <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>75</v>
+        <v>359</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>75</v>
@@ -9709,10 +9781,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9735,13 +9807,13 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9792,7 +9864,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9810,7 +9882,7 @@
         <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>75</v>
@@ -9821,14 +9893,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9847,16 +9919,16 @@
         <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9894,19 +9966,19 @@
         <v>75</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -9915,16 +9987,16 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>75</v>
@@ -9935,10 +10007,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9961,19 +10033,19 @@
         <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>75</v>
@@ -9998,49 +10070,49 @@
         <v>75</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y73" t="s" s="2">
+      <c r="Z73" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z73" t="s" s="2">
+      <c r="AA73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF73" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AA73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF73" t="s" s="2">
+      <c r="AG73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>75</v>
@@ -10051,10 +10123,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10077,19 +10149,19 @@
         <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>75</v>
@@ -10114,49 +10186,49 @@
         <v>75</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y74" t="s" s="2">
+      <c r="Z74" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z74" t="s" s="2">
+      <c r="AA74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF74" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AA74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF74" t="s" s="2">
+      <c r="AG74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AG74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AL74" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>75</v>
@@ -10167,10 +10239,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10193,19 +10265,19 @@
         <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>75</v>
@@ -10218,64 +10290,64 @@
         <v>75</v>
       </c>
       <c r="T75" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF75" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="U75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF75" t="s" s="2">
+      <c r="AG75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK75" t="s" s="2">
+      <c r="AL75" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>75</v>
@@ -10283,10 +10355,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10309,16 +10381,16 @@
         <v>86</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10332,64 +10404,64 @@
         <v>75</v>
       </c>
       <c r="T76" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF76" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="U76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF76" t="s" s="2">
+      <c r="AG76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AG76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK76" t="s" s="2">
+      <c r="AL76" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>75</v>
@@ -10397,10 +10469,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10423,15 +10495,17 @@
         <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>75</v>
@@ -10489,19 +10563,19 @@
         <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>75</v>
@@ -10509,10 +10583,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10535,16 +10609,16 @@
         <v>86</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10594,7 +10668,7 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -10603,19 +10677,19 @@
         <v>85</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>75</v>
@@ -10623,10 +10697,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10649,16 +10723,16 @@
         <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10708,7 +10782,7 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -10717,16 +10791,16 @@
         <v>85</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T12:37:11+00:00</t>
+    <t>2024-03-26T14:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T14:28:58+00:00</t>
+    <t>2024-03-26T14:52:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T14:52:36+00:00</t>
+    <t>2024-03-27T10:43:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T10:43:47+00:00</t>
+    <t>2024-03-27T12:02:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="427">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T12:02:55+00:00</t>
+    <t>2024-03-28T06:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -313,250 +313,244 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Organization.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Organization.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Organization.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Organization.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Organization.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Organization.extension:mainLocation</t>
+  </si>
+  <si>
+    <t>mainLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-MainLocation}
+</t>
+  </si>
+  <si>
+    <t>Main location</t>
+  </si>
+  <si>
+    <t>The main location of the organisation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>Organization.extension:organizationPeriod</t>
+  </si>
+  <si>
+    <t>organizationPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {organization-period}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Organization.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
+    <t>The date range that this organization SHOULD be considered available.</t>
+  </si>
+  <si>
+    <t>Organization.extension:organizationPeriod.id</t>
+  </si>
+  <si>
+    <t>Organization.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>Organization.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
+    <t>Organization.extension:organizationPeriod.extension</t>
+  </si>
+  <si>
+    <t>Organization.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Organization.extension:organizationPeriod.url</t>
+  </si>
+  <si>
+    <t>Organization.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/organization-period</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Organization.extension:organizationPeriod.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Organization.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Organization.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Organization.extension</t>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Organization.extension:mainLocation</t>
-  </si>
-  <si>
-    <t>mainLocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-MainLocation}
-</t>
-  </si>
-  <si>
-    <t>Main location</t>
-  </si>
-  <si>
-    <t>The main location of the organisation.</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationPeriod</t>
-  </si>
-  <si>
-    <t>organizationPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {organization-period}
-</t>
-  </si>
-  <si>
-    <t>The date range that this organization SHOULD be considered available.</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationPeriod.id</t>
-  </si>
-  <si>
-    <t>Organization.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationPeriod.extension</t>
-  </si>
-  <si>
-    <t>Organization.extension.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationPeriod.url</t>
-  </si>
-  <si>
-    <t>Organization.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/organization-period</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationPeriod.value[x]</t>
-  </si>
-  <si>
-    <t>Organization.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Organization.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -564,6 +558,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -590,8 +587,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1
-org-1</t>
+    <t xml:space="preserve">org-1
+</t>
   </si>
   <si>
     <t>XON.10 / XON.3</t>
@@ -628,6 +625,12 @@
   </si>
   <si>
     <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Organization.identifier:odsOrganisationCode.use</t>
@@ -778,15 +781,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>CX.7 + CX.8</t>
@@ -818,10 +813,6 @@
   </si>
   <si>
     <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
@@ -998,12 +989,12 @@
     <t>Human contact for the organization.</t>
   </si>
   <si>
-    <t>ele-1
-org-3</t>
+    <t xml:space="preserve">org-3
+</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>ORC-22?</t>
@@ -1034,8 +1025,8 @@
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
   </si>
   <si>
-    <t>ele-1
-org-2</t>
+    <t xml:space="preserve">org-2
+</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1060,9 +1051,6 @@
     <t>The organization of which this organization forms a part.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Need to be able to track the hierarchy of organizations within an organization.</t>
   </si>
   <si>
@@ -1090,8 +1078,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t>ele-1
-ref-1</t>
+    <t xml:space="preserve">ref-1
+</t>
   </si>
   <si>
     <t>Organization.partOf.type</t>
@@ -1134,13 +1122,7 @@
     <t>Reference.identifier</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
     <t>.identifier</t>
-  </si>
-  <si>
-    <t>Identifier</t>
   </si>
   <si>
     <t>Organization.partOf.identifier.id</t>
@@ -1236,9 +1218,6 @@
     <t>Indicates a purpose for which the contact can be reached.</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>Need to distinguish between multiple contact persons.</t>
   </si>
   <si>
@@ -1246,9 +1225,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>./type</t>
@@ -1267,9 +1243,6 @@
     <t>A name associated with the contact.</t>
   </si>
   <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
-  </si>
-  <si>
     <t>Need to be able to track the person by name.</t>
   </si>
   <si>
@@ -1279,9 +1252,6 @@
     <t>./name</t>
   </si>
   <si>
-    <t>ProviderName</t>
-  </si>
-  <si>
     <t>Organization.contact.telecom</t>
   </si>
   <si>
@@ -1294,19 +1264,12 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
     <t>PID-13, PID-14</t>
   </si>
   <si>
     <t>./telecom</t>
   </si>
   <si>
-    <t>ContactPoint</t>
-  </si>
-  <si>
     <t>Organization.contact.address</t>
   </si>
   <si>
@@ -1316,9 +1279,6 @@
     <t>Visiting or postal addresses for the contact.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
     <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
   </si>
   <si>
@@ -1326,9 +1286,6 @@
   </si>
   <si>
     <t>./addr</t>
-  </si>
-  <si>
-    <t>Address</t>
   </si>
   <si>
     <t>Organization.endpoint</t>
@@ -1345,9 +1302,6 @@
   </si>
   <si>
     <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
-  </si>
-  <si>
-    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
   <si>
     <t>Organization.endpoint.id</t>
@@ -1716,17 +1670,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.3046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.18359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.2421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.0234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.12109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.5" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1735,26 +1689,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="106.98046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.42578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="107.0859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="60.5" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2199,16 +2153,16 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>75</v>
@@ -2219,10 +2173,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2245,16 +2199,16 @@
         <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2304,7 +2258,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -2313,16 +2267,16 @@
         <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>75</v>
@@ -2333,10 +2287,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2359,16 +2313,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2394,32 +2348,32 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
@@ -2427,16 +2381,16 @@
         <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>75</v>
@@ -2447,14 +2401,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2473,16 +2427,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2532,7 +2486,7 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -2541,16 +2495,16 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>75</v>
@@ -2561,14 +2515,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2587,16 +2541,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2646,7 +2600,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2664,7 +2618,7 @@
         <v>75</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>75</v>
@@ -2675,14 +2629,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2701,17 +2655,15 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2748,19 +2700,17 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2769,16 +2719,16 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>75</v>
@@ -2789,16 +2739,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2817,17 +2767,15 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
@@ -2876,7 +2824,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2885,16 +2833,16 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>
@@ -2905,16 +2853,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2933,17 +2881,15 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2992,7 +2938,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -3001,16 +2947,16 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>75</v>
@@ -3021,10 +2967,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3047,13 +2993,13 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3104,7 +3050,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3122,7 +3068,7 @@
         <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
@@ -3133,14 +3079,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3159,17 +3105,15 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
@@ -3206,19 +3150,19 @@
         <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3227,16 +3171,16 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>75</v>
@@ -3247,10 +3191,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3273,16 +3217,16 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3290,7 +3234,7 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>75</v>
@@ -3332,7 +3276,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>85</v>
@@ -3350,7 +3294,7 @@
         <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>75</v>
@@ -3361,10 +3305,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3387,13 +3331,13 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3444,7 +3388,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3453,16 +3397,16 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>75</v>
@@ -3473,14 +3417,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3499,19 +3443,19 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3548,19 +3492,19 @@
         <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3569,16 +3513,16 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>75</v>
@@ -3589,10 +3533,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3615,17 +3559,17 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3662,17 +3606,17 @@
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3681,33 +3625,33 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>75</v>
@@ -3729,17 +3673,17 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3788,7 +3732,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3797,30 +3741,30 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AJ18" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3843,13 +3787,13 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3900,7 +3844,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3918,7 +3862,7 @@
         <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>75</v>
@@ -3929,14 +3873,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3955,16 +3899,16 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4002,19 +3946,19 @@
         <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -4023,16 +3967,16 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>75</v>
@@ -4043,10 +3987,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4069,19 +4013,19 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -4106,13 +4050,13 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>75</v>
@@ -4130,7 +4074,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4139,16 +4083,16 @@
         <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK21" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>75</v>
@@ -4159,10 +4103,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4185,19 +4129,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -4222,13 +4166,13 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>75</v>
@@ -4246,7 +4190,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4255,16 +4199,16 @@
         <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>75</v>
@@ -4275,10 +4219,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4301,32 +4245,32 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>75</v>
@@ -4362,7 +4306,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4371,19 +4315,19 @@
         <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>75</v>
@@ -4391,10 +4335,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4417,16 +4361,16 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4440,7 +4384,7 @@
         <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>75</v>
@@ -4476,7 +4420,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4485,19 +4429,19 @@
         <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -4505,10 +4449,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4531,17 +4475,15 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N25" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4599,19 +4541,19 @@
         <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>75</v>
@@ -4619,10 +4561,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4645,16 +4587,16 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4704,28 +4646,28 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>75</v>
@@ -4733,13 +4675,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>75</v>
@@ -4761,17 +4703,17 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4820,7 +4762,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4829,30 +4771,30 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4875,13 +4817,13 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4932,7 +4874,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4950,7 +4892,7 @@
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -4961,14 +4903,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4987,16 +4929,16 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5034,19 +4976,19 @@
         <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5055,16 +4997,16 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>75</v>
@@ -5075,10 +5017,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5101,19 +5043,19 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -5138,13 +5080,13 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>75</v>
@@ -5162,7 +5104,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5171,16 +5113,16 @@
         <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK30" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>75</v>
@@ -5191,10 +5133,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5217,19 +5159,19 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -5254,13 +5196,13 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
@@ -5278,7 +5220,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5287,16 +5229,16 @@
         <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>75</v>
@@ -5307,10 +5249,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5333,32 +5275,32 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>75</v>
@@ -5394,7 +5336,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5403,19 +5345,19 @@
         <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>75</v>
@@ -5423,10 +5365,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5449,16 +5391,16 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5472,7 +5414,7 @@
         <v>75</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>75</v>
@@ -5508,7 +5450,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5517,19 +5459,19 @@
         <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>75</v>
@@ -5537,10 +5479,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5563,17 +5505,15 @@
         <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N34" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5631,19 +5571,19 @@
         <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>75</v>
@@ -5651,10 +5591,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5677,16 +5617,16 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5736,28 +5676,28 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>75</v>
@@ -5765,10 +5705,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5791,102 +5731,102 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="P36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q36" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="O36" t="s" s="2">
+      <c r="R36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="P36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="R36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>285</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5909,19 +5849,19 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -5946,13 +5886,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5970,7 +5910,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5979,30 +5919,30 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK37" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6025,19 +5965,19 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -6086,7 +6026,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6095,19 +6035,19 @@
         <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>75</v>
@@ -6115,10 +6055,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6141,19 +6081,19 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -6202,7 +6142,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6211,16 +6151,16 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
@@ -6231,10 +6171,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6257,19 +6197,19 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -6318,7 +6258,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6327,19 +6267,19 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>75</v>
@@ -6347,10 +6287,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6373,19 +6313,19 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -6434,7 +6374,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6443,19 +6383,19 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AJ41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>75</v>
@@ -6463,10 +6403,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6489,19 +6429,17 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6550,7 +6488,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6559,19 +6497,19 @@
         <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="AK42" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>75</v>
@@ -6579,10 +6517,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6605,13 +6543,13 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6662,7 +6600,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6680,7 +6618,7 @@
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>75</v>
@@ -6691,14 +6629,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6717,16 +6655,16 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6764,19 +6702,19 @@
         <v>75</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6785,16 +6723,16 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>75</v>
@@ -6805,10 +6743,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6831,16 +6769,16 @@
         <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6890,7 +6828,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6899,16 +6837,16 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -6919,10 +6857,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6945,16 +6883,16 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6980,13 +6918,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -7004,7 +6942,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7013,16 +6951,16 @@
         <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>75</v>
@@ -7033,10 +6971,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7059,16 +6997,16 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7118,7 +7056,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7127,19 +7065,19 @@
         <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK47" t="s" s="2">
-        <v>357</v>
+        <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>359</v>
+        <v>75</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>75</v>
@@ -7147,10 +7085,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7173,13 +7111,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7230,7 +7168,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7248,7 +7186,7 @@
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
@@ -7259,14 +7197,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7285,16 +7223,16 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7332,19 +7270,19 @@
         <v>75</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7353,16 +7291,16 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -7373,10 +7311,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7399,19 +7337,19 @@
         <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>75</v>
@@ -7436,13 +7374,13 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>75</v>
@@ -7460,7 +7398,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7469,16 +7407,16 @@
         <v>85</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK50" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -7489,10 +7427,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7515,19 +7453,19 @@
         <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>75</v>
@@ -7552,13 +7490,13 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>75</v>
@@ -7576,7 +7514,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7585,16 +7523,16 @@
         <v>85</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK51" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>75</v>
@@ -7605,10 +7543,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7631,19 +7569,19 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7656,7 +7594,7 @@
         <v>75</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>75</v>
@@ -7692,7 +7630,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7701,19 +7639,19 @@
         <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK52" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>75</v>
@@ -7721,10 +7659,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7747,16 +7685,16 @@
         <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7770,7 +7708,7 @@
         <v>75</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>75</v>
@@ -7806,7 +7744,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7815,19 +7753,19 @@
         <v>85</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK53" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>75</v>
@@ -7835,10 +7773,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7861,17 +7799,15 @@
         <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N54" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
@@ -7929,19 +7865,19 @@
         <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>75</v>
@@ -7949,10 +7885,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7975,16 +7911,16 @@
         <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8034,28 +7970,28 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AG55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>75</v>
@@ -8063,10 +7999,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8089,16 +8025,16 @@
         <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8148,7 +8084,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8157,16 +8093,16 @@
         <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ56" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>75</v>
@@ -8177,10 +8113,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8203,19 +8139,19 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>75</v>
@@ -8264,7 +8200,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8273,16 +8209,16 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>75</v>
@@ -8293,10 +8229,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8319,13 +8255,13 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8376,7 +8312,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8394,7 +8330,7 @@
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>75</v>
@@ -8405,14 +8341,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8431,16 +8367,16 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8478,19 +8414,19 @@
         <v>75</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8499,16 +8435,16 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>75</v>
@@ -8519,14 +8455,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8545,19 +8481,19 @@
         <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -8606,7 +8542,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8615,16 +8551,16 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>75</v>
@@ -8635,10 +8571,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8661,19 +8597,17 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>75</v>
@@ -8698,13 +8632,13 @@
         <v>75</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>75</v>
@@ -8722,7 +8656,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8731,16 +8665,16 @@
         <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK61" t="s" s="2">
-        <v>394</v>
+        <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>75</v>
@@ -8751,10 +8685,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8777,19 +8711,17 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>75</v>
@@ -8838,7 +8770,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8847,19 +8779,19 @@
         <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ62" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK62" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>75</v>
@@ -8867,10 +8799,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8893,17 +8825,17 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>75</v>
@@ -8952,7 +8884,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8961,19 +8893,19 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ63" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="AK63" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>412</v>
+        <v>75</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>75</v>
@@ -8981,10 +8913,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9007,19 +8939,17 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>75</v>
@@ -9068,7 +8998,7 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9077,19 +9007,19 @@
         <v>85</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK64" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>75</v>
@@ -9097,10 +9027,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9123,19 +9053,17 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>75</v>
@@ -9184,7 +9112,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9193,16 +9121,16 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ65" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>426</v>
+        <v>153</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>75</v>
@@ -9213,10 +9141,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9239,13 +9167,13 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9296,7 +9224,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9314,7 +9242,7 @@
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>75</v>
@@ -9325,14 +9253,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9351,16 +9279,16 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9398,19 +9326,19 @@
         <v>75</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9419,16 +9347,16 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>75</v>
@@ -9439,10 +9367,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9465,16 +9393,16 @@
         <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9524,7 +9452,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9533,16 +9461,16 @@
         <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>75</v>
@@ -9553,10 +9481,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9579,16 +9507,16 @@
         <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9614,13 +9542,13 @@
         <v>75</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>75</v>
@@ -9638,7 +9566,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9647,16 +9575,16 @@
         <v>85</v>
       </c>
       <c r="AI69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ69" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>75</v>
@@ -9667,10 +9595,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9693,16 +9621,16 @@
         <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9752,7 +9680,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9761,19 +9689,19 @@
         <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ70" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK70" t="s" s="2">
-        <v>357</v>
+        <v>75</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>359</v>
+        <v>75</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>75</v>
@@ -9781,10 +9709,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9807,13 +9735,13 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9864,7 +9792,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9882,7 +9810,7 @@
         <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>75</v>
@@ -9893,14 +9821,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9919,16 +9847,16 @@
         <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9966,19 +9894,19 @@
         <v>75</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -9987,16 +9915,16 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>75</v>
@@ -10007,10 +9935,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10033,19 +9961,19 @@
         <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>75</v>
@@ -10070,13 +9998,13 @@
         <v>75</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>75</v>
@@ -10094,7 +10022,7 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -10103,16 +10031,16 @@
         <v>85</v>
       </c>
       <c r="AI73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ73" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK73" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>75</v>
@@ -10123,10 +10051,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10149,19 +10077,19 @@
         <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>75</v>
@@ -10186,13 +10114,13 @@
         <v>75</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>75</v>
@@ -10210,7 +10138,7 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -10219,16 +10147,16 @@
         <v>85</v>
       </c>
       <c r="AI74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ74" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK74" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>75</v>
@@ -10239,10 +10167,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10265,19 +10193,19 @@
         <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>75</v>
@@ -10290,7 +10218,7 @@
         <v>75</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>75</v>
@@ -10326,7 +10254,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10335,19 +10263,19 @@
         <v>85</v>
       </c>
       <c r="AI75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ75" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK75" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>75</v>
@@ -10355,10 +10283,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10381,16 +10309,16 @@
         <v>86</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10404,7 +10332,7 @@
         <v>75</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>75</v>
@@ -10440,7 +10368,7 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -10449,19 +10377,19 @@
         <v>85</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ76" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK76" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>75</v>
@@ -10469,10 +10397,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10495,17 +10423,15 @@
         <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N77" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>75</v>
@@ -10563,19 +10489,19 @@
         <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ77" t="s" s="2">
+      <c r="AK77" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK77" t="s" s="2">
+      <c r="AL77" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>75</v>
@@ -10583,10 +10509,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10609,16 +10535,16 @@
         <v>86</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10668,28 +10594,28 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AG78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
+      <c r="AL78" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>75</v>
@@ -10697,10 +10623,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10723,16 +10649,16 @@
         <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10782,7 +10708,7 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -10791,16 +10717,16 @@
         <v>85</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ79" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T06:59:04+00:00</t>
+    <t>2024-03-28T07:27:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T07:27:12+00:00</t>
+    <t>2024-03-28T15:35:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T15:35:10+00:00</t>
+    <t>2024-04-04T07:58:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="441">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T07:58:12+01:00</t>
+    <t>2024-04-09T11:34:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -313,10 +313,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Organization.implicitRules</t>
   </si>
   <si>
@@ -336,6 +343,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Organization.language</t>
   </si>
   <si>
@@ -413,26 +423,33 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Organization.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -459,10 +476,6 @@
     <t>The main location of the organisation.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Organization.extension:organizationPeriod</t>
   </si>
   <si>
@@ -495,16 +508,13 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Organization.extension:organizationPeriod.extension</t>
   </si>
   <si>
     <t>Organization.extension.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -547,10 +557,6 @@
     <t>Organization.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -558,9 +564,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -587,8 +590,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">org-1
-</t>
+    <t>ele-1
+org-1</t>
   </si>
   <si>
     <t>XON.10 / XON.3</t>
@@ -625,12 +628,6 @@
   </si>
   <si>
     <t>Organization.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Organization.identifier:odsOrganisationCode.use</t>
@@ -781,7 +778,15 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>CX.7 + CX.8</t>
@@ -813,6 +818,10 @@
   </si>
   <si>
     <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
@@ -989,12 +998,12 @@
     <t>Human contact for the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">org-3
-</t>
+    <t>ele-1
+org-3</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>ORC-22?</t>
@@ -1025,8 +1034,8 @@
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
   </si>
   <si>
-    <t xml:space="preserve">org-2
-</t>
+    <t>ele-1
+org-2</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1051,6 +1060,9 @@
     <t>The organization of which this organization forms a part.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>Need to be able to track the hierarchy of organizations within an organization.</t>
   </si>
   <si>
@@ -1078,8 +1090,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">ref-1
-</t>
+    <t>ele-1
+ref-1</t>
   </si>
   <si>
     <t>Organization.partOf.type</t>
@@ -1122,7 +1134,13 @@
     <t>Reference.identifier</t>
   </si>
   <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
     <t>.identifier</t>
+  </si>
+  <si>
+    <t>Identifier</t>
   </si>
   <si>
     <t>Organization.partOf.identifier.id</t>
@@ -1218,6 +1236,9 @@
     <t>Indicates a purpose for which the contact can be reached.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>Need to distinguish between multiple contact persons.</t>
   </si>
   <si>
@@ -1225,6 +1246,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>./type</t>
@@ -1243,6 +1267,9 @@
     <t>A name associated with the contact.</t>
   </si>
   <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+  </si>
+  <si>
     <t>Need to be able to track the person by name.</t>
   </si>
   <si>
@@ -1252,6 +1279,9 @@
     <t>./name</t>
   </si>
   <si>
+    <t>ProviderName</t>
+  </si>
+  <si>
     <t>Organization.contact.telecom</t>
   </si>
   <si>
@@ -1264,12 +1294,19 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>PID-13, PID-14</t>
   </si>
   <si>
     <t>./telecom</t>
   </si>
   <si>
+    <t>ContactPoint</t>
+  </si>
+  <si>
     <t>Organization.contact.address</t>
   </si>
   <si>
@@ -1279,6 +1316,9 @@
     <t>Visiting or postal addresses for the contact.</t>
   </si>
   <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
     <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
   </si>
   <si>
@@ -1286,6 +1326,9 @@
   </si>
   <si>
     <t>./addr</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
   <si>
     <t>Organization.endpoint</t>
@@ -1302,6 +1345,9 @@
   </si>
   <si>
     <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+  </si>
+  <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
   <si>
     <t>Organization.endpoint.id</t>
@@ -1670,17 +1716,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.18359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.2421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.5" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.12109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1689,26 +1735,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="107.0859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="106.98046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.42578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="60.5" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2153,16 +2199,16 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>75</v>
@@ -2173,10 +2219,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2199,16 +2245,16 @@
         <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2258,7 +2304,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -2267,16 +2313,16 @@
         <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>75</v>
@@ -2287,10 +2333,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2313,16 +2359,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2348,13 +2394,13 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>75</v>
@@ -2372,7 +2418,7 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -2381,16 +2427,16 @@
         <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>75</v>
@@ -2401,14 +2447,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2427,16 +2473,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2486,7 +2532,7 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -2495,16 +2541,16 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>75</v>
@@ -2515,14 +2561,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2541,16 +2587,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2600,7 +2646,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2618,7 +2664,7 @@
         <v>75</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>75</v>
@@ -2629,14 +2675,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2655,15 +2701,17 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2700,17 +2748,19 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2719,16 +2769,16 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>75</v>
@@ -2739,16 +2789,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2767,15 +2817,17 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
@@ -2824,7 +2876,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2833,16 +2885,16 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>
@@ -2853,16 +2905,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2881,15 +2933,17 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2938,7 +2992,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2947,16 +3001,16 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>75</v>
@@ -2967,10 +3021,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2993,13 +3047,13 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3050,7 +3104,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3068,7 +3122,7 @@
         <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
@@ -3079,14 +3133,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3105,15 +3159,17 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
@@ -3150,19 +3206,19 @@
         <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3171,16 +3227,16 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>75</v>
@@ -3191,10 +3247,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3217,16 +3273,16 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3234,7 +3290,7 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>75</v>
@@ -3276,7 +3332,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>85</v>
@@ -3294,7 +3350,7 @@
         <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>75</v>
@@ -3305,10 +3361,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3331,13 +3387,13 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3388,7 +3444,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3397,16 +3453,16 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>75</v>
@@ -3417,14 +3473,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3443,19 +3499,19 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3492,19 +3548,19 @@
         <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3513,16 +3569,16 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>75</v>
@@ -3533,10 +3589,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3559,17 +3615,17 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3606,17 +3662,17 @@
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3625,33 +3681,33 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>75</v>
@@ -3673,17 +3729,17 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3732,7 +3788,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3741,30 +3797,30 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3787,13 +3843,13 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3844,7 +3900,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3862,7 +3918,7 @@
         <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>75</v>
@@ -3873,14 +3929,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3899,16 +3955,16 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3946,19 +4002,19 @@
         <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3967,16 +4023,16 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>75</v>
@@ -3987,10 +4043,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4013,19 +4069,19 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -4050,49 +4106,49 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z21" t="s" s="2">
+      <c r="AA21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AA21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF21" t="s" s="2">
+      <c r="AG21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>75</v>
@@ -4103,10 +4159,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4129,19 +4185,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -4166,49 +4222,49 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z22" t="s" s="2">
+      <c r="AA22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AA22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF22" t="s" s="2">
+      <c r="AG22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AL22" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>75</v>
@@ -4219,10 +4275,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4245,89 +4301,89 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="S23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T23" t="s" s="2">
+      <c r="U23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="U23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF23" t="s" s="2">
+      <c r="AG23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>75</v>
@@ -4335,10 +4391,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4361,16 +4417,16 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4384,64 +4440,64 @@
         <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="U24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF24" t="s" s="2">
+      <c r="AG24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -4449,10 +4505,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4475,15 +4531,17 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4541,19 +4599,19 @@
         <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>75</v>
@@ -4561,10 +4619,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4587,16 +4645,16 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4646,7 +4704,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4655,19 +4713,19 @@
         <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>75</v>
@@ -4675,13 +4733,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>75</v>
@@ -4703,17 +4761,17 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4762,7 +4820,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4771,30 +4829,30 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4817,13 +4875,13 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4874,7 +4932,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4892,7 +4950,7 @@
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -4903,14 +4961,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4929,16 +4987,16 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4976,19 +5034,19 @@
         <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4997,16 +5055,16 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>75</v>
@@ -5017,10 +5075,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5043,19 +5101,19 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -5080,49 +5138,49 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z30" t="s" s="2">
+      <c r="AA30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AA30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF30" t="s" s="2">
+      <c r="AG30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>75</v>
@@ -5133,10 +5191,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5159,19 +5217,19 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -5196,49 +5254,49 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z31" t="s" s="2">
+      <c r="AA31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF31" t="s" s="2">
+      <c r="AG31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AL31" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>75</v>
@@ -5249,10 +5307,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5275,89 +5333,89 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="T32" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="U32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF32" t="s" s="2">
+      <c r="AG32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>75</v>
@@ -5365,10 +5423,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5391,16 +5449,16 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5414,64 +5472,64 @@
         <v>75</v>
       </c>
       <c r="T33" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="U33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF33" t="s" s="2">
+      <c r="AG33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>75</v>
@@ -5479,10 +5537,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5505,15 +5563,17 @@
         <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5571,19 +5631,19 @@
         <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>75</v>
@@ -5591,10 +5651,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5617,16 +5677,16 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5676,7 +5736,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5685,19 +5745,19 @@
         <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>75</v>
@@ -5705,10 +5765,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5731,71 +5791,71 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q36" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="P36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q36" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5803,30 +5863,30 @@
         <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5849,19 +5909,19 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -5886,13 +5946,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5910,7 +5970,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5919,30 +5979,30 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5965,19 +6025,19 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -6026,7 +6086,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6035,19 +6095,19 @@
         <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>75</v>
@@ -6055,10 +6115,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6081,19 +6141,19 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -6142,7 +6202,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6151,16 +6211,16 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
@@ -6171,10 +6231,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6197,19 +6257,19 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -6258,7 +6318,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6267,19 +6327,19 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>75</v>
@@ -6287,10 +6347,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6313,19 +6373,19 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -6374,7 +6434,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6383,19 +6443,19 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>75</v>
@@ -6403,10 +6463,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6429,17 +6489,19 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6488,7 +6550,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6497,19 +6559,19 @@
         <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>75</v>
@@ -6517,10 +6579,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6543,13 +6605,13 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6600,7 +6662,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6618,7 +6680,7 @@
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>75</v>
@@ -6629,14 +6691,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6655,16 +6717,16 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6702,19 +6764,19 @@
         <v>75</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6723,16 +6785,16 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>75</v>
@@ -6743,10 +6805,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6769,16 +6831,16 @@
         <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6828,7 +6890,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6837,16 +6899,16 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -6857,10 +6919,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6883,16 +6945,16 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6918,13 +6980,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -6942,7 +7004,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6951,16 +7013,16 @@
         <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>75</v>
@@ -6971,10 +7033,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6997,16 +7059,16 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7056,7 +7118,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7065,19 +7127,19 @@
         <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>75</v>
+        <v>359</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>75</v>
@@ -7085,10 +7147,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7111,13 +7173,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7168,7 +7230,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7186,7 +7248,7 @@
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
@@ -7197,14 +7259,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7223,16 +7285,16 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7270,19 +7332,19 @@
         <v>75</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7291,16 +7353,16 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -7311,10 +7373,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7337,19 +7399,19 @@
         <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>75</v>
@@ -7374,49 +7436,49 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y50" t="s" s="2">
+      <c r="Z50" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z50" t="s" s="2">
+      <c r="AA50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AA50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF50" t="s" s="2">
+      <c r="AG50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -7427,10 +7489,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7453,19 +7515,19 @@
         <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>75</v>
@@ -7490,49 +7552,49 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z51" t="s" s="2">
+      <c r="AA51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AA51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF51" t="s" s="2">
+      <c r="AG51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AL51" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>75</v>
@@ -7543,10 +7605,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7569,19 +7631,19 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7594,64 +7656,64 @@
         <v>75</v>
       </c>
       <c r="T52" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="U52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF52" t="s" s="2">
+      <c r="AG52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>75</v>
@@ -7659,10 +7721,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7685,16 +7747,16 @@
         <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7708,64 +7770,64 @@
         <v>75</v>
       </c>
       <c r="T53" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="U53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF53" t="s" s="2">
+      <c r="AG53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>75</v>
@@ -7773,10 +7835,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7799,15 +7861,17 @@
         <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
@@ -7865,19 +7929,19 @@
         <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>75</v>
@@ -7885,10 +7949,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7911,16 +7975,16 @@
         <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7970,7 +8034,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7979,19 +8043,19 @@
         <v>85</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>75</v>
@@ -7999,10 +8063,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8025,16 +8089,16 @@
         <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8084,7 +8148,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8093,16 +8157,16 @@
         <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>75</v>
@@ -8113,10 +8177,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8139,19 +8203,19 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>75</v>
@@ -8200,7 +8264,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8209,16 +8273,16 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>75</v>
@@ -8229,10 +8293,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8255,13 +8319,13 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8312,7 +8376,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8330,7 +8394,7 @@
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>75</v>
@@ -8341,14 +8405,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8367,16 +8431,16 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8414,19 +8478,19 @@
         <v>75</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8435,16 +8499,16 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>75</v>
@@ -8455,14 +8519,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8481,19 +8545,19 @@
         <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -8542,7 +8606,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8551,16 +8615,16 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>75</v>
@@ -8571,10 +8635,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8597,17 +8661,19 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O61" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>75</v>
@@ -8632,32 +8698,32 @@
         <v>75</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Z61" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF61" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AA61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8665,16 +8731,16 @@
         <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>75</v>
+        <v>394</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>75</v>
@@ -8685,10 +8751,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8711,17 +8777,19 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O62" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>75</v>
@@ -8770,7 +8838,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8779,19 +8847,19 @@
         <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>75</v>
+        <v>404</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>75</v>
@@ -8799,10 +8867,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8825,17 +8893,17 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>75</v>
@@ -8884,7 +8952,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8893,19 +8961,19 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>97</v>
+        <v>409</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>75</v>
+        <v>412</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>75</v>
@@ -8913,10 +8981,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8939,17 +9007,19 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O64" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>75</v>
@@ -8998,7 +9068,7 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9007,19 +9077,19 @@
         <v>85</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>75</v>
+        <v>420</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>75</v>
@@ -9027,10 +9097,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9053,17 +9123,19 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O65" t="s" s="2">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>75</v>
@@ -9112,7 +9184,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9121,16 +9193,16 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>153</v>
+        <v>426</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>75</v>
@@ -9141,10 +9213,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9167,13 +9239,13 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9224,7 +9296,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9242,7 +9314,7 @@
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>75</v>
@@ -9253,14 +9325,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9279,16 +9351,16 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9326,19 +9398,19 @@
         <v>75</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9347,16 +9419,16 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>75</v>
@@ -9367,10 +9439,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9393,16 +9465,16 @@
         <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9452,7 +9524,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9461,16 +9533,16 @@
         <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>75</v>
@@ -9481,10 +9553,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9507,16 +9579,16 @@
         <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9542,13 +9614,13 @@
         <v>75</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>75</v>
@@ -9566,7 +9638,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9575,16 +9647,16 @@
         <v>85</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>75</v>
@@ -9595,10 +9667,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9621,16 +9693,16 @@
         <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9680,7 +9752,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9689,19 +9761,19 @@
         <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>75</v>
+        <v>359</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>75</v>
@@ -9709,10 +9781,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9735,13 +9807,13 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9792,7 +9864,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9810,7 +9882,7 @@
         <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>75</v>
@@ -9821,14 +9893,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9847,16 +9919,16 @@
         <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9894,19 +9966,19 @@
         <v>75</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -9915,16 +9987,16 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>75</v>
@@ -9935,10 +10007,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9961,19 +10033,19 @@
         <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>75</v>
@@ -9998,49 +10070,49 @@
         <v>75</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y73" t="s" s="2">
+      <c r="Z73" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z73" t="s" s="2">
+      <c r="AA73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF73" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AA73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF73" t="s" s="2">
+      <c r="AG73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>75</v>
@@ -10051,10 +10123,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10077,19 +10149,19 @@
         <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>75</v>
@@ -10114,49 +10186,49 @@
         <v>75</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y74" t="s" s="2">
+      <c r="Z74" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z74" t="s" s="2">
+      <c r="AA74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF74" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AA74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF74" t="s" s="2">
+      <c r="AG74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AG74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AL74" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>75</v>
@@ -10167,10 +10239,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10193,19 +10265,19 @@
         <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>75</v>
@@ -10218,64 +10290,64 @@
         <v>75</v>
       </c>
       <c r="T75" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF75" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="U75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF75" t="s" s="2">
+      <c r="AG75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK75" t="s" s="2">
+      <c r="AL75" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>75</v>
@@ -10283,10 +10355,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10309,16 +10381,16 @@
         <v>86</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10332,64 +10404,64 @@
         <v>75</v>
       </c>
       <c r="T76" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF76" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="U76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF76" t="s" s="2">
+      <c r="AG76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AG76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK76" t="s" s="2">
+      <c r="AL76" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>75</v>
@@ -10397,10 +10469,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10423,15 +10495,17 @@
         <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>75</v>
@@ -10489,19 +10563,19 @@
         <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>75</v>
@@ -10509,10 +10583,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10535,16 +10609,16 @@
         <v>86</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10594,7 +10668,7 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -10603,19 +10677,19 @@
         <v>85</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>75</v>
@@ -10623,10 +10697,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10649,16 +10723,16 @@
         <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10708,7 +10782,7 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -10717,16 +10791,16 @@
         <v>85</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-09T11:34:38+01:00</t>
+    <t>2024-04-09T14:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="427">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-09T14:59:55+01:00</t>
+    <t>2024-04-12T08:32:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -313,250 +313,244 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Organization.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Organization.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Organization.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Organization.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Organization.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Organization.extension:mainLocation</t>
+  </si>
+  <si>
+    <t>mainLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-MainLocation}
+</t>
+  </si>
+  <si>
+    <t>Main location</t>
+  </si>
+  <si>
+    <t>The main location of the organisation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>Organization.extension:organizationPeriod</t>
+  </si>
+  <si>
+    <t>organizationPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {organization-period}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Organization.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
+    <t>The date range that this organization SHOULD be considered available.</t>
+  </si>
+  <si>
+    <t>Organization.extension:organizationPeriod.id</t>
+  </si>
+  <si>
+    <t>Organization.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>Organization.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
+    <t>Organization.extension:organizationPeriod.extension</t>
+  </si>
+  <si>
+    <t>Organization.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Organization.extension:organizationPeriod.url</t>
+  </si>
+  <si>
+    <t>Organization.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/organization-period</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Organization.extension:organizationPeriod.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Organization.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Organization.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Organization.extension</t>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Organization.extension:mainLocation</t>
-  </si>
-  <si>
-    <t>mainLocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-MainLocation}
-</t>
-  </si>
-  <si>
-    <t>Main location</t>
-  </si>
-  <si>
-    <t>The main location of the organisation.</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationPeriod</t>
-  </si>
-  <si>
-    <t>organizationPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {organization-period}
-</t>
-  </si>
-  <si>
-    <t>The date range that this organization SHOULD be considered available.</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationPeriod.id</t>
-  </si>
-  <si>
-    <t>Organization.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationPeriod.extension</t>
-  </si>
-  <si>
-    <t>Organization.extension.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationPeriod.url</t>
-  </si>
-  <si>
-    <t>Organization.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/organization-period</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationPeriod.value[x]</t>
-  </si>
-  <si>
-    <t>Organization.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Organization.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -564,6 +558,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -590,8 +587,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1
-org-1</t>
+    <t xml:space="preserve">org-1
+</t>
   </si>
   <si>
     <t>XON.10 / XON.3</t>
@@ -628,6 +625,12 @@
   </si>
   <si>
     <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Organization.identifier:odsOrganisationCode.use</t>
@@ -778,15 +781,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>CX.7 + CX.8</t>
@@ -818,10 +813,6 @@
   </si>
   <si>
     <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
@@ -998,12 +989,12 @@
     <t>Human contact for the organization.</t>
   </si>
   <si>
-    <t>ele-1
-org-3</t>
+    <t xml:space="preserve">org-3
+</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>ORC-22?</t>
@@ -1034,8 +1025,8 @@
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
   </si>
   <si>
-    <t>ele-1
-org-2</t>
+    <t xml:space="preserve">org-2
+</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1060,9 +1051,6 @@
     <t>The organization of which this organization forms a part.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Need to be able to track the hierarchy of organizations within an organization.</t>
   </si>
   <si>
@@ -1090,8 +1078,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t>ele-1
-ref-1</t>
+    <t xml:space="preserve">ref-1
+</t>
   </si>
   <si>
     <t>Organization.partOf.type</t>
@@ -1134,13 +1122,7 @@
     <t>Reference.identifier</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
     <t>.identifier</t>
-  </si>
-  <si>
-    <t>Identifier</t>
   </si>
   <si>
     <t>Organization.partOf.identifier.id</t>
@@ -1236,9 +1218,6 @@
     <t>Indicates a purpose for which the contact can be reached.</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>Need to distinguish between multiple contact persons.</t>
   </si>
   <si>
@@ -1246,9 +1225,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>./type</t>
@@ -1267,9 +1243,6 @@
     <t>A name associated with the contact.</t>
   </si>
   <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
-  </si>
-  <si>
     <t>Need to be able to track the person by name.</t>
   </si>
   <si>
@@ -1279,9 +1252,6 @@
     <t>./name</t>
   </si>
   <si>
-    <t>ProviderName</t>
-  </si>
-  <si>
     <t>Organization.contact.telecom</t>
   </si>
   <si>
@@ -1294,19 +1264,12 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
     <t>PID-13, PID-14</t>
   </si>
   <si>
     <t>./telecom</t>
   </si>
   <si>
-    <t>ContactPoint</t>
-  </si>
-  <si>
     <t>Organization.contact.address</t>
   </si>
   <si>
@@ -1316,9 +1279,6 @@
     <t>Visiting or postal addresses for the contact.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
     <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
   </si>
   <si>
@@ -1326,9 +1286,6 @@
   </si>
   <si>
     <t>./addr</t>
-  </si>
-  <si>
-    <t>Address</t>
   </si>
   <si>
     <t>Organization.endpoint</t>
@@ -1345,9 +1302,6 @@
   </si>
   <si>
     <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
-  </si>
-  <si>
-    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
   <si>
     <t>Organization.endpoint.id</t>
@@ -1716,17 +1670,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.3046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.18359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.2421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.0234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.12109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.5" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1735,26 +1689,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="106.98046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.42578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="107.0859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="60.5" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2199,16 +2153,16 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>75</v>
@@ -2219,10 +2173,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2245,16 +2199,16 @@
         <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2304,7 +2258,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -2313,16 +2267,16 @@
         <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>75</v>
@@ -2333,10 +2287,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2359,16 +2313,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2394,32 +2348,32 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
@@ -2427,16 +2381,16 @@
         <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>75</v>
@@ -2447,14 +2401,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2473,16 +2427,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2532,7 +2486,7 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -2541,16 +2495,16 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>75</v>
@@ -2561,14 +2515,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2587,16 +2541,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2646,7 +2600,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2664,7 +2618,7 @@
         <v>75</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>75</v>
@@ -2675,14 +2629,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2701,17 +2655,15 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2748,19 +2700,17 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2769,16 +2719,16 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>75</v>
@@ -2789,16 +2739,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2817,17 +2767,15 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
@@ -2876,7 +2824,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2885,16 +2833,16 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>
@@ -2905,16 +2853,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2933,17 +2881,15 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2992,7 +2938,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -3001,16 +2947,16 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>75</v>
@@ -3021,10 +2967,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3047,13 +2993,13 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3104,7 +3050,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3122,7 +3068,7 @@
         <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
@@ -3133,14 +3079,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3159,17 +3105,15 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
@@ -3206,19 +3150,19 @@
         <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3227,16 +3171,16 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>75</v>
@@ -3247,10 +3191,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3273,16 +3217,16 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3290,7 +3234,7 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>75</v>
@@ -3332,7 +3276,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>85</v>
@@ -3350,7 +3294,7 @@
         <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>75</v>
@@ -3361,10 +3305,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3387,13 +3331,13 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3444,7 +3388,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3453,16 +3397,16 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>75</v>
@@ -3473,14 +3417,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3499,19 +3443,19 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3548,19 +3492,19 @@
         <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3569,16 +3513,16 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>75</v>
@@ -3589,10 +3533,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3615,17 +3559,17 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3662,17 +3606,17 @@
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3681,33 +3625,33 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>75</v>
@@ -3729,17 +3673,17 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3788,7 +3732,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3797,30 +3741,30 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AJ18" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3843,13 +3787,13 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3900,7 +3844,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3918,7 +3862,7 @@
         <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>75</v>
@@ -3929,14 +3873,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3955,16 +3899,16 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4002,19 +3946,19 @@
         <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -4023,16 +3967,16 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>75</v>
@@ -4043,10 +3987,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4069,19 +4013,19 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -4106,13 +4050,13 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>75</v>
@@ -4130,7 +4074,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4139,16 +4083,16 @@
         <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK21" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>75</v>
@@ -4159,10 +4103,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4185,19 +4129,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -4222,13 +4166,13 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>75</v>
@@ -4246,7 +4190,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4255,16 +4199,16 @@
         <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>75</v>
@@ -4275,10 +4219,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4301,32 +4245,32 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>75</v>
@@ -4362,7 +4306,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4371,19 +4315,19 @@
         <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>75</v>
@@ -4391,10 +4335,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4417,16 +4361,16 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4440,7 +4384,7 @@
         <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>75</v>
@@ -4476,7 +4420,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4485,19 +4429,19 @@
         <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -4505,10 +4449,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4531,17 +4475,15 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N25" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4599,19 +4541,19 @@
         <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>75</v>
@@ -4619,10 +4561,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4645,16 +4587,16 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4704,28 +4646,28 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>75</v>
@@ -4733,13 +4675,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>75</v>
@@ -4761,17 +4703,17 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4820,7 +4762,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4829,30 +4771,30 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4875,13 +4817,13 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4932,7 +4874,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4950,7 +4892,7 @@
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -4961,14 +4903,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4987,16 +4929,16 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5034,19 +4976,19 @@
         <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5055,16 +4997,16 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>75</v>
@@ -5075,10 +5017,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5101,19 +5043,19 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -5138,13 +5080,13 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>75</v>
@@ -5162,7 +5104,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5171,16 +5113,16 @@
         <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK30" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>75</v>
@@ -5191,10 +5133,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5217,19 +5159,19 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -5254,13 +5196,13 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
@@ -5278,7 +5220,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5287,16 +5229,16 @@
         <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>75</v>
@@ -5307,10 +5249,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5333,32 +5275,32 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>75</v>
@@ -5394,7 +5336,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5403,19 +5345,19 @@
         <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>75</v>
@@ -5423,10 +5365,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5449,16 +5391,16 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5472,7 +5414,7 @@
         <v>75</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>75</v>
@@ -5508,7 +5450,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5517,19 +5459,19 @@
         <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>75</v>
@@ -5537,10 +5479,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5563,17 +5505,15 @@
         <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N34" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5631,19 +5571,19 @@
         <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>75</v>
@@ -5651,10 +5591,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5677,16 +5617,16 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5736,28 +5676,28 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>75</v>
@@ -5765,10 +5705,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5791,102 +5731,102 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="P36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q36" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="O36" t="s" s="2">
+      <c r="R36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="P36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="R36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>285</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5909,19 +5849,19 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -5946,13 +5886,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5970,7 +5910,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5979,30 +5919,30 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK37" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6025,19 +5965,19 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -6086,7 +6026,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6095,19 +6035,19 @@
         <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>75</v>
@@ -6115,10 +6055,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6141,19 +6081,19 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -6202,7 +6142,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6211,16 +6151,16 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
@@ -6231,10 +6171,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6257,19 +6197,19 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -6318,7 +6258,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6327,19 +6267,19 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>75</v>
@@ -6347,10 +6287,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6373,19 +6313,19 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -6434,7 +6374,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6443,19 +6383,19 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AJ41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>75</v>
@@ -6463,10 +6403,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6489,19 +6429,17 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6550,7 +6488,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6559,19 +6497,19 @@
         <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="AK42" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>75</v>
@@ -6579,10 +6517,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6605,13 +6543,13 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6662,7 +6600,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6680,7 +6618,7 @@
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>75</v>
@@ -6691,14 +6629,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6717,16 +6655,16 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6764,19 +6702,19 @@
         <v>75</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6785,16 +6723,16 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>75</v>
@@ -6805,10 +6743,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6831,16 +6769,16 @@
         <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6890,7 +6828,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6899,16 +6837,16 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -6919,10 +6857,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6945,16 +6883,16 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6980,13 +6918,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -7004,7 +6942,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7013,16 +6951,16 @@
         <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>75</v>
@@ -7033,10 +6971,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7059,16 +6997,16 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7118,7 +7056,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7127,19 +7065,19 @@
         <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK47" t="s" s="2">
-        <v>357</v>
+        <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>359</v>
+        <v>75</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>75</v>
@@ -7147,10 +7085,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7173,13 +7111,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7230,7 +7168,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7248,7 +7186,7 @@
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
@@ -7259,14 +7197,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7285,16 +7223,16 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7332,19 +7270,19 @@
         <v>75</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7353,16 +7291,16 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -7373,10 +7311,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7399,19 +7337,19 @@
         <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>75</v>
@@ -7436,13 +7374,13 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>75</v>
@@ -7460,7 +7398,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7469,16 +7407,16 @@
         <v>85</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK50" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -7489,10 +7427,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7515,19 +7453,19 @@
         <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>75</v>
@@ -7552,13 +7490,13 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>75</v>
@@ -7576,7 +7514,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7585,16 +7523,16 @@
         <v>85</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK51" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>75</v>
@@ -7605,10 +7543,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7631,19 +7569,19 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7656,7 +7594,7 @@
         <v>75</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>75</v>
@@ -7692,7 +7630,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7701,19 +7639,19 @@
         <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK52" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>75</v>
@@ -7721,10 +7659,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7747,16 +7685,16 @@
         <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7770,7 +7708,7 @@
         <v>75</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>75</v>
@@ -7806,7 +7744,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7815,19 +7753,19 @@
         <v>85</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK53" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>75</v>
@@ -7835,10 +7773,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7861,17 +7799,15 @@
         <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N54" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
@@ -7929,19 +7865,19 @@
         <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>75</v>
@@ -7949,10 +7885,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7975,16 +7911,16 @@
         <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8034,28 +7970,28 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AG55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>75</v>
@@ -8063,10 +7999,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8089,16 +8025,16 @@
         <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8148,7 +8084,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8157,16 +8093,16 @@
         <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ56" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>75</v>
@@ -8177,10 +8113,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8203,19 +8139,19 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>75</v>
@@ -8264,7 +8200,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8273,16 +8209,16 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>75</v>
@@ -8293,10 +8229,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8319,13 +8255,13 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8376,7 +8312,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8394,7 +8330,7 @@
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>75</v>
@@ -8405,14 +8341,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8431,16 +8367,16 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8478,19 +8414,19 @@
         <v>75</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8499,16 +8435,16 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>75</v>
@@ -8519,14 +8455,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8545,19 +8481,19 @@
         <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -8606,7 +8542,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8615,16 +8551,16 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>75</v>
@@ -8635,10 +8571,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8661,19 +8597,17 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>75</v>
@@ -8698,13 +8632,13 @@
         <v>75</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>75</v>
@@ -8722,7 +8656,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8731,16 +8665,16 @@
         <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK61" t="s" s="2">
-        <v>394</v>
+        <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>75</v>
@@ -8751,10 +8685,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8777,19 +8711,17 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>75</v>
@@ -8838,7 +8770,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8847,19 +8779,19 @@
         <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ62" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK62" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>75</v>
@@ -8867,10 +8799,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8893,17 +8825,17 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>75</v>
@@ -8952,7 +8884,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8961,19 +8893,19 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ63" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="AK63" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>412</v>
+        <v>75</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>75</v>
@@ -8981,10 +8913,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9007,19 +8939,17 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>75</v>
@@ -9068,7 +8998,7 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9077,19 +9007,19 @@
         <v>85</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK64" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>75</v>
@@ -9097,10 +9027,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9123,19 +9053,17 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>75</v>
@@ -9184,7 +9112,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9193,16 +9121,16 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ65" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>426</v>
+        <v>153</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>75</v>
@@ -9213,10 +9141,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9239,13 +9167,13 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9296,7 +9224,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9314,7 +9242,7 @@
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>75</v>
@@ -9325,14 +9253,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9351,16 +9279,16 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9398,19 +9326,19 @@
         <v>75</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9419,16 +9347,16 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>75</v>
@@ -9439,10 +9367,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9465,16 +9393,16 @@
         <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9524,7 +9452,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9533,16 +9461,16 @@
         <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>75</v>
@@ -9553,10 +9481,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9579,16 +9507,16 @@
         <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9614,13 +9542,13 @@
         <v>75</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>75</v>
@@ -9638,7 +9566,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9647,16 +9575,16 @@
         <v>85</v>
       </c>
       <c r="AI69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ69" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>75</v>
@@ -9667,10 +9595,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9693,16 +9621,16 @@
         <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9752,7 +9680,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9761,19 +9689,19 @@
         <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ70" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK70" t="s" s="2">
-        <v>357</v>
+        <v>75</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>359</v>
+        <v>75</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>75</v>
@@ -9781,10 +9709,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9807,13 +9735,13 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9864,7 +9792,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9882,7 +9810,7 @@
         <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>75</v>
@@ -9893,14 +9821,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9919,16 +9847,16 @@
         <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9966,19 +9894,19 @@
         <v>75</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -9987,16 +9915,16 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>75</v>
@@ -10007,10 +9935,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10033,19 +9961,19 @@
         <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>75</v>
@@ -10070,13 +9998,13 @@
         <v>75</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>75</v>
@@ -10094,7 +10022,7 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -10103,16 +10031,16 @@
         <v>85</v>
       </c>
       <c r="AI73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ73" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK73" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>75</v>
@@ -10123,10 +10051,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10149,19 +10077,19 @@
         <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>75</v>
@@ -10186,13 +10114,13 @@
         <v>75</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>75</v>
@@ -10210,7 +10138,7 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -10219,16 +10147,16 @@
         <v>85</v>
       </c>
       <c r="AI74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ74" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK74" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>75</v>
@@ -10239,10 +10167,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10265,19 +10193,19 @@
         <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>75</v>
@@ -10290,7 +10218,7 @@
         <v>75</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>75</v>
@@ -10326,7 +10254,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10335,19 +10263,19 @@
         <v>85</v>
       </c>
       <c r="AI75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ75" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK75" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>75</v>
@@ -10355,10 +10283,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10381,16 +10309,16 @@
         <v>86</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10404,7 +10332,7 @@
         <v>75</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>75</v>
@@ -10440,7 +10368,7 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -10449,19 +10377,19 @@
         <v>85</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ76" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK76" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>75</v>
@@ -10469,10 +10397,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10495,17 +10423,15 @@
         <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N77" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>75</v>
@@ -10563,19 +10489,19 @@
         <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ77" t="s" s="2">
+      <c r="AK77" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK77" t="s" s="2">
+      <c r="AL77" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>75</v>
@@ -10583,10 +10509,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10609,16 +10535,16 @@
         <v>86</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10668,28 +10594,28 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AG78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
+      <c r="AL78" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>75</v>
@@ -10697,10 +10623,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10723,16 +10649,16 @@
         <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10782,7 +10708,7 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -10791,16 +10717,16 @@
         <v>85</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ79" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="441">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T08:32:19+01:00</t>
+    <t>2024-04-12T10:30:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -313,10 +313,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Organization.implicitRules</t>
   </si>
   <si>
@@ -336,6 +343,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Organization.language</t>
   </si>
   <si>
@@ -413,26 +423,33 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Organization.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -459,10 +476,6 @@
     <t>The main location of the organisation.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Organization.extension:organizationPeriod</t>
   </si>
   <si>
@@ -495,16 +508,13 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Organization.extension:organizationPeriod.extension</t>
   </si>
   <si>
     <t>Organization.extension.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -547,10 +557,6 @@
     <t>Organization.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -558,9 +564,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -587,8 +590,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">org-1
-</t>
+    <t>ele-1
+org-1</t>
   </si>
   <si>
     <t>XON.10 / XON.3</t>
@@ -625,12 +628,6 @@
   </si>
   <si>
     <t>Organization.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Organization.identifier:odsOrganisationCode.use</t>
@@ -781,7 +778,15 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>CX.7 + CX.8</t>
@@ -813,6 +818,10 @@
   </si>
   <si>
     <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
@@ -989,12 +998,12 @@
     <t>Human contact for the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">org-3
-</t>
+    <t>ele-1
+org-3</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>ORC-22?</t>
@@ -1025,8 +1034,8 @@
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
   </si>
   <si>
-    <t xml:space="preserve">org-2
-</t>
+    <t>ele-1
+org-2</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1051,6 +1060,9 @@
     <t>The organization of which this organization forms a part.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>Need to be able to track the hierarchy of organizations within an organization.</t>
   </si>
   <si>
@@ -1078,8 +1090,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">ref-1
-</t>
+    <t>ele-1
+ref-1</t>
   </si>
   <si>
     <t>Organization.partOf.type</t>
@@ -1122,7 +1134,13 @@
     <t>Reference.identifier</t>
   </si>
   <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
     <t>.identifier</t>
+  </si>
+  <si>
+    <t>Identifier</t>
   </si>
   <si>
     <t>Organization.partOf.identifier.id</t>
@@ -1218,6 +1236,9 @@
     <t>Indicates a purpose for which the contact can be reached.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>Need to distinguish between multiple contact persons.</t>
   </si>
   <si>
@@ -1225,6 +1246,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>./type</t>
@@ -1243,6 +1267,9 @@
     <t>A name associated with the contact.</t>
   </si>
   <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+  </si>
+  <si>
     <t>Need to be able to track the person by name.</t>
   </si>
   <si>
@@ -1252,6 +1279,9 @@
     <t>./name</t>
   </si>
   <si>
+    <t>ProviderName</t>
+  </si>
+  <si>
     <t>Organization.contact.telecom</t>
   </si>
   <si>
@@ -1264,12 +1294,19 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>PID-13, PID-14</t>
   </si>
   <si>
     <t>./telecom</t>
   </si>
   <si>
+    <t>ContactPoint</t>
+  </si>
+  <si>
     <t>Organization.contact.address</t>
   </si>
   <si>
@@ -1279,6 +1316,9 @@
     <t>Visiting or postal addresses for the contact.</t>
   </si>
   <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
     <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
   </si>
   <si>
@@ -1286,6 +1326,9 @@
   </si>
   <si>
     <t>./addr</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
   <si>
     <t>Organization.endpoint</t>
@@ -1302,6 +1345,9 @@
   </si>
   <si>
     <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+  </si>
+  <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
   <si>
     <t>Organization.endpoint.id</t>
@@ -1670,17 +1716,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.18359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.2421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.5" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.12109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1689,26 +1735,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="107.0859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="106.98046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.42578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="60.5" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2153,16 +2199,16 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>75</v>
@@ -2173,10 +2219,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2199,16 +2245,16 @@
         <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2258,7 +2304,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -2267,16 +2313,16 @@
         <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>75</v>
@@ -2287,10 +2333,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2313,16 +2359,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2348,13 +2394,13 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>75</v>
@@ -2372,7 +2418,7 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -2381,16 +2427,16 @@
         <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>75</v>
@@ -2401,14 +2447,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2427,16 +2473,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2486,7 +2532,7 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -2495,16 +2541,16 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>75</v>
@@ -2515,14 +2561,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2541,16 +2587,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2600,7 +2646,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2618,7 +2664,7 @@
         <v>75</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>75</v>
@@ -2629,14 +2675,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2655,15 +2701,17 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2700,17 +2748,19 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2719,16 +2769,16 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>75</v>
@@ -2739,16 +2789,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2767,15 +2817,17 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
@@ -2824,7 +2876,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2833,16 +2885,16 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>
@@ -2853,16 +2905,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2881,15 +2933,17 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2938,7 +2992,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2947,16 +3001,16 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>75</v>
@@ -2967,10 +3021,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2993,13 +3047,13 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3050,7 +3104,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3068,7 +3122,7 @@
         <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
@@ -3079,14 +3133,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3105,15 +3159,17 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
@@ -3150,19 +3206,19 @@
         <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3171,16 +3227,16 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>75</v>
@@ -3191,10 +3247,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3217,16 +3273,16 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3234,7 +3290,7 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>75</v>
@@ -3276,7 +3332,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>85</v>
@@ -3294,7 +3350,7 @@
         <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>75</v>
@@ -3305,10 +3361,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3331,13 +3387,13 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3388,7 +3444,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3397,16 +3453,16 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>75</v>
@@ -3417,14 +3473,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3443,19 +3499,19 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3492,19 +3548,19 @@
         <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3513,16 +3569,16 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>75</v>
@@ -3533,10 +3589,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3559,17 +3615,17 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3606,17 +3662,17 @@
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3625,33 +3681,33 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>75</v>
@@ -3673,17 +3729,17 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3732,7 +3788,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3741,30 +3797,30 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3787,13 +3843,13 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3844,7 +3900,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3862,7 +3918,7 @@
         <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>75</v>
@@ -3873,14 +3929,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3899,16 +3955,16 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3946,19 +4002,19 @@
         <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3967,16 +4023,16 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>75</v>
@@ -3987,10 +4043,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4013,19 +4069,19 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -4050,49 +4106,49 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z21" t="s" s="2">
+      <c r="AA21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AA21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF21" t="s" s="2">
+      <c r="AG21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>75</v>
@@ -4103,10 +4159,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4129,19 +4185,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -4166,49 +4222,49 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z22" t="s" s="2">
+      <c r="AA22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AA22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF22" t="s" s="2">
+      <c r="AG22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AL22" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>75</v>
@@ -4219,10 +4275,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4245,89 +4301,89 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="S23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T23" t="s" s="2">
+      <c r="U23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="U23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF23" t="s" s="2">
+      <c r="AG23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>75</v>
@@ -4335,10 +4391,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4361,16 +4417,16 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4384,64 +4440,64 @@
         <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="U24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF24" t="s" s="2">
+      <c r="AG24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -4449,10 +4505,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4475,15 +4531,17 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4541,19 +4599,19 @@
         <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>75</v>
@@ -4561,10 +4619,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4587,16 +4645,16 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4646,7 +4704,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4655,19 +4713,19 @@
         <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>75</v>
@@ -4675,13 +4733,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>75</v>
@@ -4703,17 +4761,17 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4762,7 +4820,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4771,30 +4829,30 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4817,13 +4875,13 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4874,7 +4932,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4892,7 +4950,7 @@
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -4903,14 +4961,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4929,16 +4987,16 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4976,19 +5034,19 @@
         <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4997,16 +5055,16 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>75</v>
@@ -5017,10 +5075,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5043,19 +5101,19 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -5080,49 +5138,49 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z30" t="s" s="2">
+      <c r="AA30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AA30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF30" t="s" s="2">
+      <c r="AG30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>75</v>
@@ -5133,10 +5191,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5159,19 +5217,19 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -5196,49 +5254,49 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z31" t="s" s="2">
+      <c r="AA31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF31" t="s" s="2">
+      <c r="AG31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AL31" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>75</v>
@@ -5249,10 +5307,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5275,89 +5333,89 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="T32" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="U32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF32" t="s" s="2">
+      <c r="AG32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>75</v>
@@ -5365,10 +5423,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5391,16 +5449,16 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5414,64 +5472,64 @@
         <v>75</v>
       </c>
       <c r="T33" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="U33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF33" t="s" s="2">
+      <c r="AG33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>75</v>
@@ -5479,10 +5537,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5505,15 +5563,17 @@
         <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5571,19 +5631,19 @@
         <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>75</v>
@@ -5591,10 +5651,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5617,16 +5677,16 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5676,7 +5736,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5685,19 +5745,19 @@
         <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>75</v>
@@ -5705,10 +5765,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5731,71 +5791,71 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q36" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="P36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q36" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5803,30 +5863,30 @@
         <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5849,19 +5909,19 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -5886,13 +5946,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5910,7 +5970,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5919,30 +5979,30 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5965,19 +6025,19 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -6026,7 +6086,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6035,19 +6095,19 @@
         <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>75</v>
@@ -6055,10 +6115,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6081,19 +6141,19 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -6142,7 +6202,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6151,16 +6211,16 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
@@ -6171,10 +6231,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6197,19 +6257,19 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -6258,7 +6318,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6267,19 +6327,19 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>75</v>
@@ -6287,10 +6347,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6313,19 +6373,19 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -6374,7 +6434,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6383,19 +6443,19 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>75</v>
@@ -6403,10 +6463,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6429,17 +6489,19 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6488,7 +6550,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6497,19 +6559,19 @@
         <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>75</v>
@@ -6517,10 +6579,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6543,13 +6605,13 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6600,7 +6662,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6618,7 +6680,7 @@
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>75</v>
@@ -6629,14 +6691,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6655,16 +6717,16 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6702,19 +6764,19 @@
         <v>75</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6723,16 +6785,16 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>75</v>
@@ -6743,10 +6805,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6769,16 +6831,16 @@
         <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6828,7 +6890,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6837,16 +6899,16 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -6857,10 +6919,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6883,16 +6945,16 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6918,13 +6980,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -6942,7 +7004,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6951,16 +7013,16 @@
         <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>75</v>
@@ -6971,10 +7033,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6997,16 +7059,16 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7056,7 +7118,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7065,19 +7127,19 @@
         <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>75</v>
+        <v>359</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>75</v>
@@ -7085,10 +7147,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7111,13 +7173,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7168,7 +7230,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7186,7 +7248,7 @@
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
@@ -7197,14 +7259,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7223,16 +7285,16 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7270,19 +7332,19 @@
         <v>75</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7291,16 +7353,16 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -7311,10 +7373,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7337,19 +7399,19 @@
         <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>75</v>
@@ -7374,49 +7436,49 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y50" t="s" s="2">
+      <c r="Z50" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z50" t="s" s="2">
+      <c r="AA50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AA50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF50" t="s" s="2">
+      <c r="AG50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -7427,10 +7489,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7453,19 +7515,19 @@
         <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>75</v>
@@ -7490,49 +7552,49 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z51" t="s" s="2">
+      <c r="AA51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AA51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF51" t="s" s="2">
+      <c r="AG51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AL51" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>75</v>
@@ -7543,10 +7605,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7569,19 +7631,19 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7594,64 +7656,64 @@
         <v>75</v>
       </c>
       <c r="T52" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="U52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF52" t="s" s="2">
+      <c r="AG52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>75</v>
@@ -7659,10 +7721,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7685,16 +7747,16 @@
         <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7708,64 +7770,64 @@
         <v>75</v>
       </c>
       <c r="T53" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="U53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF53" t="s" s="2">
+      <c r="AG53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>75</v>
@@ -7773,10 +7835,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7799,15 +7861,17 @@
         <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
@@ -7865,19 +7929,19 @@
         <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>75</v>
@@ -7885,10 +7949,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7911,16 +7975,16 @@
         <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7970,7 +8034,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7979,19 +8043,19 @@
         <v>85</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>75</v>
@@ -7999,10 +8063,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8025,16 +8089,16 @@
         <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8084,7 +8148,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8093,16 +8157,16 @@
         <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>75</v>
@@ -8113,10 +8177,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8139,19 +8203,19 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>75</v>
@@ -8200,7 +8264,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8209,16 +8273,16 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>75</v>
@@ -8229,10 +8293,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8255,13 +8319,13 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8312,7 +8376,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8330,7 +8394,7 @@
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>75</v>
@@ -8341,14 +8405,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8367,16 +8431,16 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8414,19 +8478,19 @@
         <v>75</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8435,16 +8499,16 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>75</v>
@@ -8455,14 +8519,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8481,19 +8545,19 @@
         <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -8542,7 +8606,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8551,16 +8615,16 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>75</v>
@@ -8571,10 +8635,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8597,17 +8661,19 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O61" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>75</v>
@@ -8632,32 +8698,32 @@
         <v>75</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Z61" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF61" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AA61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8665,16 +8731,16 @@
         <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>75</v>
+        <v>394</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>75</v>
@@ -8685,10 +8751,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8711,17 +8777,19 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O62" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>75</v>
@@ -8770,7 +8838,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8779,19 +8847,19 @@
         <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>75</v>
+        <v>404</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>75</v>
@@ -8799,10 +8867,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8825,17 +8893,17 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>75</v>
@@ -8884,7 +8952,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8893,19 +8961,19 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>97</v>
+        <v>409</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>75</v>
+        <v>412</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>75</v>
@@ -8913,10 +8981,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8939,17 +9007,19 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O64" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>75</v>
@@ -8998,7 +9068,7 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9007,19 +9077,19 @@
         <v>85</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>75</v>
+        <v>420</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>75</v>
@@ -9027,10 +9097,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9053,17 +9123,19 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O65" t="s" s="2">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>75</v>
@@ -9112,7 +9184,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9121,16 +9193,16 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>153</v>
+        <v>426</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>75</v>
@@ -9141,10 +9213,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9167,13 +9239,13 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9224,7 +9296,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9242,7 +9314,7 @@
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>75</v>
@@ -9253,14 +9325,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9279,16 +9351,16 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9326,19 +9398,19 @@
         <v>75</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9347,16 +9419,16 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>75</v>
@@ -9367,10 +9439,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9393,16 +9465,16 @@
         <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9452,7 +9524,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9461,16 +9533,16 @@
         <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>75</v>
@@ -9481,10 +9553,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9507,16 +9579,16 @@
         <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9542,13 +9614,13 @@
         <v>75</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>75</v>
@@ -9566,7 +9638,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9575,16 +9647,16 @@
         <v>85</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>75</v>
@@ -9595,10 +9667,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9621,16 +9693,16 @@
         <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9680,7 +9752,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9689,19 +9761,19 @@
         <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>75</v>
+        <v>359</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>75</v>
@@ -9709,10 +9781,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9735,13 +9807,13 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9792,7 +9864,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9810,7 +9882,7 @@
         <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>75</v>
@@ -9821,14 +9893,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9847,16 +9919,16 @@
         <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9894,19 +9966,19 @@
         <v>75</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -9915,16 +9987,16 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>75</v>
@@ -9935,10 +10007,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9961,19 +10033,19 @@
         <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>75</v>
@@ -9998,49 +10070,49 @@
         <v>75</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y73" t="s" s="2">
+      <c r="Z73" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z73" t="s" s="2">
+      <c r="AA73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF73" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AA73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF73" t="s" s="2">
+      <c r="AG73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>75</v>
@@ -10051,10 +10123,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10077,19 +10149,19 @@
         <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>75</v>
@@ -10114,49 +10186,49 @@
         <v>75</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y74" t="s" s="2">
+      <c r="Z74" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z74" t="s" s="2">
+      <c r="AA74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF74" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AA74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF74" t="s" s="2">
+      <c r="AG74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AG74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AL74" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>75</v>
@@ -10167,10 +10239,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10193,19 +10265,19 @@
         <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>75</v>
@@ -10218,64 +10290,64 @@
         <v>75</v>
       </c>
       <c r="T75" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF75" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="U75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF75" t="s" s="2">
+      <c r="AG75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK75" t="s" s="2">
+      <c r="AL75" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>75</v>
@@ -10283,10 +10355,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10309,16 +10381,16 @@
         <v>86</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10332,64 +10404,64 @@
         <v>75</v>
       </c>
       <c r="T76" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF76" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="U76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF76" t="s" s="2">
+      <c r="AG76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AG76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK76" t="s" s="2">
+      <c r="AL76" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>75</v>
@@ -10397,10 +10469,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10423,15 +10495,17 @@
         <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>75</v>
@@ -10489,19 +10563,19 @@
         <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>75</v>
@@ -10509,10 +10583,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10535,16 +10609,16 @@
         <v>86</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10594,7 +10668,7 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -10603,19 +10677,19 @@
         <v>85</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>75</v>
@@ -10623,10 +10697,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10649,16 +10723,16 @@
         <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10708,7 +10782,7 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -10717,16 +10791,16 @@
         <v>85</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T10:30:08+01:00</t>
+    <t>2024-04-12T11:43:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T11:43:38+01:00</t>
+    <t>2024-04-15T10:54:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="427">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T10:54:06+01:00</t>
+    <t>2024-04-19T04:03:07+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -313,250 +313,244 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Organization.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Organization.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Organization.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Organization.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Organization.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Organization.extension:mainLocation</t>
+  </si>
+  <si>
+    <t>mainLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-MainLocation}
+</t>
+  </si>
+  <si>
+    <t>Main location</t>
+  </si>
+  <si>
+    <t>The main location of the organisation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>Organization.extension:organizationPeriod</t>
+  </si>
+  <si>
+    <t>organizationPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {organization-period}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Organization.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
+    <t>The date range that this organization SHOULD be considered available.</t>
+  </si>
+  <si>
+    <t>Organization.extension:organizationPeriod.id</t>
+  </si>
+  <si>
+    <t>Organization.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>Organization.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
+    <t>Organization.extension:organizationPeriod.extension</t>
+  </si>
+  <si>
+    <t>Organization.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Organization.extension:organizationPeriod.url</t>
+  </si>
+  <si>
+    <t>Organization.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/organization-period</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Organization.extension:organizationPeriod.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Organization.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Organization.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Organization.extension</t>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Organization.extension:mainLocation</t>
-  </si>
-  <si>
-    <t>mainLocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-MainLocation}
-</t>
-  </si>
-  <si>
-    <t>Main location</t>
-  </si>
-  <si>
-    <t>The main location of the organisation.</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationPeriod</t>
-  </si>
-  <si>
-    <t>organizationPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {organization-period}
-</t>
-  </si>
-  <si>
-    <t>The date range that this organization SHOULD be considered available.</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationPeriod.id</t>
-  </si>
-  <si>
-    <t>Organization.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationPeriod.extension</t>
-  </si>
-  <si>
-    <t>Organization.extension.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationPeriod.url</t>
-  </si>
-  <si>
-    <t>Organization.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/organization-period</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationPeriod.value[x]</t>
-  </si>
-  <si>
-    <t>Organization.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Organization.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -564,6 +558,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -590,8 +587,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1
-org-1</t>
+    <t xml:space="preserve">org-1
+</t>
   </si>
   <si>
     <t>XON.10 / XON.3</t>
@@ -628,6 +625,12 @@
   </si>
   <si>
     <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Organization.identifier:odsOrganisationCode.use</t>
@@ -778,15 +781,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>CX.7 + CX.8</t>
@@ -818,10 +813,6 @@
   </si>
   <si>
     <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
@@ -998,12 +989,12 @@
     <t>Human contact for the organization.</t>
   </si>
   <si>
-    <t>ele-1
-org-3</t>
+    <t xml:space="preserve">org-3
+</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>ORC-22?</t>
@@ -1034,8 +1025,8 @@
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
   </si>
   <si>
-    <t>ele-1
-org-2</t>
+    <t xml:space="preserve">org-2
+</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1060,9 +1051,6 @@
     <t>The organization of which this organization forms a part.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Need to be able to track the hierarchy of organizations within an organization.</t>
   </si>
   <si>
@@ -1090,8 +1078,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t>ele-1
-ref-1</t>
+    <t xml:space="preserve">ref-1
+</t>
   </si>
   <si>
     <t>Organization.partOf.type</t>
@@ -1134,13 +1122,7 @@
     <t>Reference.identifier</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
     <t>.identifier</t>
-  </si>
-  <si>
-    <t>Identifier</t>
   </si>
   <si>
     <t>Organization.partOf.identifier.id</t>
@@ -1236,9 +1218,6 @@
     <t>Indicates a purpose for which the contact can be reached.</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>Need to distinguish between multiple contact persons.</t>
   </si>
   <si>
@@ -1246,9 +1225,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>./type</t>
@@ -1267,9 +1243,6 @@
     <t>A name associated with the contact.</t>
   </si>
   <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
-  </si>
-  <si>
     <t>Need to be able to track the person by name.</t>
   </si>
   <si>
@@ -1279,9 +1252,6 @@
     <t>./name</t>
   </si>
   <si>
-    <t>ProviderName</t>
-  </si>
-  <si>
     <t>Organization.contact.telecom</t>
   </si>
   <si>
@@ -1294,19 +1264,12 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
     <t>PID-13, PID-14</t>
   </si>
   <si>
     <t>./telecom</t>
   </si>
   <si>
-    <t>ContactPoint</t>
-  </si>
-  <si>
     <t>Organization.contact.address</t>
   </si>
   <si>
@@ -1316,9 +1279,6 @@
     <t>Visiting or postal addresses for the contact.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
     <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
   </si>
   <si>
@@ -1326,9 +1286,6 @@
   </si>
   <si>
     <t>./addr</t>
-  </si>
-  <si>
-    <t>Address</t>
   </si>
   <si>
     <t>Organization.endpoint</t>
@@ -1345,9 +1302,6 @@
   </si>
   <si>
     <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
-  </si>
-  <si>
-    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
   <si>
     <t>Organization.endpoint.id</t>
@@ -1716,17 +1670,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.3046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.18359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.2421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.0234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.12109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.5" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1735,26 +1689,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="106.98046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.42578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="107.0859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="60.5" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2199,16 +2153,16 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>75</v>
@@ -2219,10 +2173,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2245,16 +2199,16 @@
         <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2304,7 +2258,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -2313,16 +2267,16 @@
         <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>75</v>
@@ -2333,10 +2287,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2359,16 +2313,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2394,32 +2348,32 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
@@ -2427,16 +2381,16 @@
         <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>75</v>
@@ -2447,14 +2401,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2473,16 +2427,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2532,7 +2486,7 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -2541,16 +2495,16 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>75</v>
@@ -2561,14 +2515,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2587,16 +2541,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2646,7 +2600,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2664,7 +2618,7 @@
         <v>75</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>75</v>
@@ -2675,14 +2629,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2701,17 +2655,15 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2748,19 +2700,17 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2769,16 +2719,16 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>75</v>
@@ -2789,16 +2739,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2817,17 +2767,15 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
@@ -2876,7 +2824,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2885,16 +2833,16 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>
@@ -2905,16 +2853,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2933,17 +2881,15 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2992,7 +2938,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -3001,16 +2947,16 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>75</v>
@@ -3021,10 +2967,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3047,13 +2993,13 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3104,7 +3050,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3122,7 +3068,7 @@
         <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
@@ -3133,14 +3079,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3159,17 +3105,15 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
@@ -3206,19 +3150,19 @@
         <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3227,16 +3171,16 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>75</v>
@@ -3247,10 +3191,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3273,16 +3217,16 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3290,7 +3234,7 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>75</v>
@@ -3332,7 +3276,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>85</v>
@@ -3350,7 +3294,7 @@
         <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>75</v>
@@ -3361,10 +3305,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3387,13 +3331,13 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3444,7 +3388,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3453,16 +3397,16 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>75</v>
@@ -3473,14 +3417,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3499,19 +3443,19 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3548,19 +3492,19 @@
         <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3569,16 +3513,16 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>75</v>
@@ -3589,10 +3533,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3615,17 +3559,17 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3662,17 +3606,17 @@
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3681,33 +3625,33 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>75</v>
@@ -3729,17 +3673,17 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3788,7 +3732,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3797,30 +3741,30 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AJ18" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3843,13 +3787,13 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3900,7 +3844,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3918,7 +3862,7 @@
         <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>75</v>
@@ -3929,14 +3873,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3955,16 +3899,16 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4002,19 +3946,19 @@
         <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -4023,16 +3967,16 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>75</v>
@@ -4043,10 +3987,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4069,19 +4013,19 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -4106,13 +4050,13 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>75</v>
@@ -4130,7 +4074,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4139,16 +4083,16 @@
         <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK21" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>75</v>
@@ -4159,10 +4103,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4185,19 +4129,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -4222,13 +4166,13 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>75</v>
@@ -4246,7 +4190,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4255,16 +4199,16 @@
         <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>75</v>
@@ -4275,10 +4219,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4301,32 +4245,32 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>75</v>
@@ -4362,7 +4306,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4371,19 +4315,19 @@
         <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>75</v>
@@ -4391,10 +4335,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4417,16 +4361,16 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4440,7 +4384,7 @@
         <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>75</v>
@@ -4476,7 +4420,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4485,19 +4429,19 @@
         <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -4505,10 +4449,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4531,17 +4475,15 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N25" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4599,19 +4541,19 @@
         <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>75</v>
@@ -4619,10 +4561,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4645,16 +4587,16 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4704,28 +4646,28 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>75</v>
@@ -4733,13 +4675,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>75</v>
@@ -4761,17 +4703,17 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4820,7 +4762,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4829,30 +4771,30 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4875,13 +4817,13 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4932,7 +4874,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4950,7 +4892,7 @@
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -4961,14 +4903,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4987,16 +4929,16 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5034,19 +4976,19 @@
         <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5055,16 +4997,16 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>75</v>
@@ -5075,10 +5017,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5101,19 +5043,19 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -5138,13 +5080,13 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>75</v>
@@ -5162,7 +5104,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5171,16 +5113,16 @@
         <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK30" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>75</v>
@@ -5191,10 +5133,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5217,19 +5159,19 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -5254,13 +5196,13 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
@@ -5278,7 +5220,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5287,16 +5229,16 @@
         <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>75</v>
@@ -5307,10 +5249,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5333,32 +5275,32 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>75</v>
@@ -5394,7 +5336,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5403,19 +5345,19 @@
         <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>75</v>
@@ -5423,10 +5365,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5449,16 +5391,16 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5472,7 +5414,7 @@
         <v>75</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>75</v>
@@ -5508,7 +5450,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5517,19 +5459,19 @@
         <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>75</v>
@@ -5537,10 +5479,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5563,17 +5505,15 @@
         <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N34" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5631,19 +5571,19 @@
         <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>75</v>
@@ -5651,10 +5591,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5677,16 +5617,16 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5736,28 +5676,28 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>75</v>
@@ -5765,10 +5705,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5791,102 +5731,102 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="P36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q36" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="O36" t="s" s="2">
+      <c r="R36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="P36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="R36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>285</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5909,19 +5849,19 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -5946,13 +5886,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5970,7 +5910,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5979,30 +5919,30 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK37" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6025,19 +5965,19 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -6086,7 +6026,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6095,19 +6035,19 @@
         <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>75</v>
@@ -6115,10 +6055,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6141,19 +6081,19 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -6202,7 +6142,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6211,16 +6151,16 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
@@ -6231,10 +6171,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6257,19 +6197,19 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -6318,7 +6258,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6327,19 +6267,19 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>75</v>
@@ -6347,10 +6287,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6373,19 +6313,19 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -6434,7 +6374,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6443,19 +6383,19 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AJ41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>75</v>
@@ -6463,10 +6403,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6489,19 +6429,17 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6550,7 +6488,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6559,19 +6497,19 @@
         <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="AK42" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>75</v>
@@ -6579,10 +6517,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6605,13 +6543,13 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6662,7 +6600,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6680,7 +6618,7 @@
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>75</v>
@@ -6691,14 +6629,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6717,16 +6655,16 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6764,19 +6702,19 @@
         <v>75</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6785,16 +6723,16 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>75</v>
@@ -6805,10 +6743,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6831,16 +6769,16 @@
         <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6890,7 +6828,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6899,16 +6837,16 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -6919,10 +6857,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6945,16 +6883,16 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6980,13 +6918,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -7004,7 +6942,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7013,16 +6951,16 @@
         <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>75</v>
@@ -7033,10 +6971,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7059,16 +6997,16 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7118,7 +7056,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7127,19 +7065,19 @@
         <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK47" t="s" s="2">
-        <v>357</v>
+        <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>359</v>
+        <v>75</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>75</v>
@@ -7147,10 +7085,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7173,13 +7111,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7230,7 +7168,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7248,7 +7186,7 @@
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
@@ -7259,14 +7197,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7285,16 +7223,16 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7332,19 +7270,19 @@
         <v>75</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7353,16 +7291,16 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -7373,10 +7311,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7399,19 +7337,19 @@
         <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>75</v>
@@ -7436,13 +7374,13 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>75</v>
@@ -7460,7 +7398,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7469,16 +7407,16 @@
         <v>85</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK50" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -7489,10 +7427,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7515,19 +7453,19 @@
         <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>75</v>
@@ -7552,13 +7490,13 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>75</v>
@@ -7576,7 +7514,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7585,16 +7523,16 @@
         <v>85</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK51" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>75</v>
@@ -7605,10 +7543,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7631,19 +7569,19 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7656,7 +7594,7 @@
         <v>75</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>75</v>
@@ -7692,7 +7630,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7701,19 +7639,19 @@
         <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK52" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>75</v>
@@ -7721,10 +7659,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7747,16 +7685,16 @@
         <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7770,7 +7708,7 @@
         <v>75</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>75</v>
@@ -7806,7 +7744,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7815,19 +7753,19 @@
         <v>85</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK53" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>75</v>
@@ -7835,10 +7773,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7861,17 +7799,15 @@
         <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N54" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
@@ -7929,19 +7865,19 @@
         <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>75</v>
@@ -7949,10 +7885,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7975,16 +7911,16 @@
         <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8034,28 +7970,28 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AG55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>75</v>
@@ -8063,10 +7999,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8089,16 +8025,16 @@
         <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8148,7 +8084,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8157,16 +8093,16 @@
         <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ56" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>75</v>
@@ -8177,10 +8113,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8203,19 +8139,19 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>75</v>
@@ -8264,7 +8200,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8273,16 +8209,16 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>75</v>
@@ -8293,10 +8229,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8319,13 +8255,13 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8376,7 +8312,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8394,7 +8330,7 @@
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>75</v>
@@ -8405,14 +8341,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8431,16 +8367,16 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8478,19 +8414,19 @@
         <v>75</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8499,16 +8435,16 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>75</v>
@@ -8519,14 +8455,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8545,19 +8481,19 @@
         <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -8606,7 +8542,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8615,16 +8551,16 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>75</v>
@@ -8635,10 +8571,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8661,19 +8597,17 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>75</v>
@@ -8698,13 +8632,13 @@
         <v>75</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>75</v>
@@ -8722,7 +8656,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8731,16 +8665,16 @@
         <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK61" t="s" s="2">
-        <v>394</v>
+        <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>75</v>
@@ -8751,10 +8685,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8777,19 +8711,17 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>75</v>
@@ -8838,7 +8770,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8847,19 +8779,19 @@
         <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ62" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK62" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>75</v>
@@ -8867,10 +8799,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8893,17 +8825,17 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>75</v>
@@ -8952,7 +8884,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8961,19 +8893,19 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ63" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="AK63" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>412</v>
+        <v>75</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>75</v>
@@ -8981,10 +8913,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9007,19 +8939,17 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>75</v>
@@ -9068,7 +8998,7 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9077,19 +9007,19 @@
         <v>85</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK64" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>75</v>
@@ -9097,10 +9027,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9123,19 +9053,17 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>75</v>
@@ -9184,7 +9112,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9193,16 +9121,16 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ65" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>426</v>
+        <v>153</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>75</v>
@@ -9213,10 +9141,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9239,13 +9167,13 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9296,7 +9224,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9314,7 +9242,7 @@
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>75</v>
@@ -9325,14 +9253,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9351,16 +9279,16 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9398,19 +9326,19 @@
         <v>75</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9419,16 +9347,16 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>75</v>
@@ -9439,10 +9367,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9465,16 +9393,16 @@
         <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9524,7 +9452,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9533,16 +9461,16 @@
         <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>75</v>
@@ -9553,10 +9481,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9579,16 +9507,16 @@
         <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9614,13 +9542,13 @@
         <v>75</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>75</v>
@@ -9638,7 +9566,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9647,16 +9575,16 @@
         <v>85</v>
       </c>
       <c r="AI69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ69" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>75</v>
@@ -9667,10 +9595,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9693,16 +9621,16 @@
         <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9752,7 +9680,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9761,19 +9689,19 @@
         <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ70" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK70" t="s" s="2">
-        <v>357</v>
+        <v>75</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>359</v>
+        <v>75</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>75</v>
@@ -9781,10 +9709,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9807,13 +9735,13 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9864,7 +9792,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9882,7 +9810,7 @@
         <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>75</v>
@@ -9893,14 +9821,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9919,16 +9847,16 @@
         <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9966,19 +9894,19 @@
         <v>75</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -9987,16 +9915,16 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>75</v>
@@ -10007,10 +9935,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10033,19 +9961,19 @@
         <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>75</v>
@@ -10070,13 +9998,13 @@
         <v>75</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>75</v>
@@ -10094,7 +10022,7 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -10103,16 +10031,16 @@
         <v>85</v>
       </c>
       <c r="AI73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ73" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK73" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>75</v>
@@ -10123,10 +10051,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10149,19 +10077,19 @@
         <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>75</v>
@@ -10186,13 +10114,13 @@
         <v>75</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>75</v>
@@ -10210,7 +10138,7 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -10219,16 +10147,16 @@
         <v>85</v>
       </c>
       <c r="AI74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ74" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK74" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>75</v>
@@ -10239,10 +10167,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10265,19 +10193,19 @@
         <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>75</v>
@@ -10290,7 +10218,7 @@
         <v>75</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>75</v>
@@ -10326,7 +10254,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10335,19 +10263,19 @@
         <v>85</v>
       </c>
       <c r="AI75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ75" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK75" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>75</v>
@@ -10355,10 +10283,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10381,16 +10309,16 @@
         <v>86</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10404,7 +10332,7 @@
         <v>75</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>75</v>
@@ -10440,7 +10368,7 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -10449,19 +10377,19 @@
         <v>85</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ76" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK76" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>75</v>
@@ -10469,10 +10397,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10495,17 +10423,15 @@
         <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N77" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>75</v>
@@ -10563,19 +10489,19 @@
         <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ77" t="s" s="2">
+      <c r="AK77" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK77" t="s" s="2">
+      <c r="AL77" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>75</v>
@@ -10583,10 +10509,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10609,16 +10535,16 @@
         <v>86</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10668,28 +10594,28 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AG78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
+      <c r="AL78" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>75</v>
@@ -10697,10 +10623,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10723,16 +10649,16 @@
         <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10782,7 +10708,7 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -10791,16 +10717,16 @@
         <v>85</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ79" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-19T04:03:07+01:00</t>
+    <t>2024-04-23T08:00:23+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Organization.xlsx
+++ b/docs/StructureDefinition-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T08:00:23+01:00</t>
+    <t>2024-04-24T08:46:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
